--- a/drugs new.xlsx
+++ b/drugs new.xlsx
@@ -1645,8 +1645,8 @@
   </sheetPr>
   <dimension ref="A1:R227"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L171" activeCellId="0" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1657,7 +1657,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.99"/>
@@ -7527,7 +7527,10 @@
       </c>
       <c r="L169" s="12"/>
       <c r="M169" s="4" t="n">
-        <v>3003</v>
+        <v>2860</v>
+      </c>
+      <c r="N169" s="6" t="n">
+        <v>46507</v>
       </c>
       <c r="O169" s="4" t="n">
         <v>1</v>
@@ -7596,7 +7599,7 @@
       </c>
       <c r="L171" s="12"/>
       <c r="M171" s="4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N171" s="6" t="n">
         <v>46022</v>
@@ -7627,9 +7630,7 @@
       <c r="J172" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K172" s="12" t="n">
-        <v>650</v>
-      </c>
+      <c r="K172" s="12"/>
       <c r="L172" s="12"/>
       <c r="M172" s="4" t="n">
         <v>1000</v>
@@ -7740,7 +7741,7 @@
       </c>
       <c r="L175" s="12"/>
       <c r="M175" s="4" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="N175" s="6" t="n">
         <v>45991</v>
@@ -7901,7 +7902,7 @@
       </c>
       <c r="L180" s="12"/>
       <c r="M180" s="4" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N180" s="6" t="n">
         <v>46234</v>
@@ -7931,11 +7932,14 @@
         <v>50</v>
       </c>
       <c r="K181" s="12" t="n">
-        <v>4500</v>
+        <v>8700</v>
       </c>
       <c r="L181" s="12"/>
       <c r="M181" s="4" t="n">
-        <v>92</v>
+        <v>40</v>
+      </c>
+      <c r="N181" s="6" t="n">
+        <v>46173</v>
       </c>
       <c r="O181" s="4" t="n">
         <v>1</v>
@@ -7966,7 +7970,7 @@
       </c>
       <c r="L182" s="12"/>
       <c r="M182" s="4" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N182" s="6" t="n">
         <v>46265</v>
@@ -8000,7 +8004,7 @@
       </c>
       <c r="L183" s="12"/>
       <c r="M183" s="4" t="n">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="N183" s="6" t="n">
         <v>45930</v>
@@ -8130,11 +8134,11 @@
         <v>406</v>
       </c>
       <c r="K187" s="12" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
       <c r="L187" s="12"/>
       <c r="M187" s="4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N187" s="6" t="n">
         <v>46356</v>
@@ -8300,14 +8304,14 @@
         <v>272</v>
       </c>
       <c r="K192" s="12" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="L192" s="12"/>
       <c r="M192" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N192" s="6" t="n">
-        <v>45900</v>
+        <v>46295</v>
       </c>
       <c r="O192" s="4" t="n">
         <v>1</v>
@@ -8406,10 +8410,10 @@
       </c>
       <c r="L195" s="12"/>
       <c r="M195" s="4" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="N195" s="6" t="n">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="O195" s="4" t="n">
         <v>1</v>
@@ -8504,14 +8508,14 @@
         <v>406</v>
       </c>
       <c r="K198" s="12" t="n">
-        <v>689</v>
+        <v>845</v>
       </c>
       <c r="L198" s="12"/>
       <c r="M198" s="4" t="n">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="N198" s="6" t="n">
-        <v>46326</v>
+        <v>46387</v>
       </c>
       <c r="O198" s="4" t="n">
         <v>1</v>
@@ -8672,7 +8676,7 @@
       </c>
       <c r="L203" s="12"/>
       <c r="M203" s="4" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N203" s="6" t="n">
         <v>46022</v>
@@ -8932,14 +8936,14 @@
         <v>406</v>
       </c>
       <c r="K211" s="12" t="n">
-        <v>900</v>
+        <v>7246</v>
       </c>
       <c r="L211" s="12"/>
       <c r="M211" s="4" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N211" s="6" t="n">
-        <v>45596</v>
+        <v>46081</v>
       </c>
       <c r="O211" s="4" t="n">
         <v>1</v>
@@ -9028,14 +9032,14 @@
         <v>406</v>
       </c>
       <c r="K214" s="12" t="n">
-        <v>1875</v>
+        <v>5350</v>
       </c>
       <c r="L214" s="12"/>
       <c r="M214" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N214" s="6" t="n">
-        <v>46446</v>
+        <v>46112</v>
       </c>
       <c r="O214" s="4" t="n">
         <v>1</v>
@@ -9092,14 +9096,14 @@
         <v>272</v>
       </c>
       <c r="K216" s="12" t="n">
-        <v>9834</v>
+        <v>18686</v>
       </c>
       <c r="L216" s="12"/>
       <c r="M216" s="4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N216" s="6" t="n">
-        <v>46142</v>
+        <v>45777</v>
       </c>
       <c r="O216" s="4" t="n">
         <v>1</v>
@@ -9194,7 +9198,7 @@
       </c>
       <c r="L219" s="12"/>
       <c r="M219" s="4" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N219" s="6" t="n">
         <v>46081</v>
@@ -9260,7 +9264,7 @@
       </c>
       <c r="L221" s="12"/>
       <c r="M221" s="4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N221" s="6" t="n">
         <v>45808</v>
@@ -9360,7 +9364,7 @@
       </c>
       <c r="L224" s="12"/>
       <c r="M224" s="4" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N224" s="6" t="n">
         <v>45747</v>
@@ -9394,7 +9398,7 @@
       </c>
       <c r="L225" s="12"/>
       <c r="M225" s="4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N225" s="6" t="n">
         <v>46112</v>

--- a/drugs new.xlsx
+++ b/drugs new.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="524">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1454,6 +1454,144 @@
   </si>
   <si>
     <t xml:space="preserve">VANCOMYCIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCALP VEIN NEEDLE size 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSUMABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCONPAD DISPOSABLE BED SHEETS /PER PIECE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURGICAL GLOVE size 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURGICAL GLOVE size 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNCTION CATHETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUCTION CATHETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETADINE/PYODINE SOLUTION 10% (POVIDONE IODINE) (200ML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POVIDONE IODINE 2 per lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POVIDONE IODINE 10% (100ML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADHESIVE PLASTER 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEDING TUBES (NG TUBE) size 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEDING TUBES (NG TUBE) size 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEDING TUBES (NG TUBE) size 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEDING TUBES (NG TUBE) size 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-Y JELLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTHOBOND 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTHOBOND 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-WAY CATHETER 16G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-WAY CATHETER 18G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-WAY CATHETER 16G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-WAY CATHETER 16G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-WAY CATHETER 18G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-WAY CATHETER 18G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOD GIVING SET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANNULA 16G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANNULA 18G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANNULA 20G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANNULA 22G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANNULA 24G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREPE BANDAGE 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREPE BANDAGE 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFUSION GIVING SET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATEX (EXAMINATION)HAND GLOVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFRATULLE GAUZE/DRESSING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUFRATULLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URINE BAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eusol lotion (100ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eusol Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen Peroxide (H2O2) (100ml) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEST TUBE 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEST TUBE 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEST TUBE 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEST TUBE 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEST TUBE 18</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1601,10 @@
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="mm/yy"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
-    <numFmt numFmtId="169" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="mm/yy"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
     <numFmt numFmtId="170" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
@@ -1569,7 +1707,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1598,7 +1736,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1610,7 +1756,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1618,11 +1772,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1643,10 +1801,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R227"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L171" activeCellId="0" sqref="L171"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1654,9 +1812,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="57.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="64.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.28"/>
@@ -1746,13 +1904,14 @@
       <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="6" t="n">
         <v>595</v>
       </c>
+      <c r="L2" s="7"/>
       <c r="M2" s="4" t="n">
         <v>230</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="8" t="n">
         <v>46446</v>
       </c>
       <c r="O2" s="4" t="n">
@@ -1781,13 +1940,14 @@
       <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="6" t="n">
         <v>640</v>
       </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O3" s="4" t="n">
@@ -1816,13 +1976,14 @@
       <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="6" t="n">
         <v>145</v>
       </c>
+      <c r="L4" s="7"/>
       <c r="M4" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="8" t="n">
         <v>46356</v>
       </c>
       <c r="O4" s="4" t="n">
@@ -1851,13 +2012,14 @@
       <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="6" t="n">
         <v>4000</v>
       </c>
+      <c r="L5" s="7"/>
       <c r="M5" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="8" t="n">
         <v>45596</v>
       </c>
       <c r="O5" s="4" t="n">
@@ -1886,13 +2048,14 @@
       <c r="J6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="6" t="n">
         <v>250</v>
       </c>
+      <c r="L6" s="7"/>
       <c r="M6" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O6" s="4" t="n">
@@ -1921,13 +2084,14 @@
       <c r="J7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="6" t="n">
         <v>373.75</v>
       </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O7" s="4" t="n">
@@ -1956,13 +2120,14 @@
       <c r="J8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="6" t="n">
         <v>2500</v>
       </c>
+      <c r="L8" s="7"/>
       <c r="M8" s="4" t="n">
         <v>339</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O8" s="4" t="n">
@@ -1991,13 +2156,14 @@
       <c r="J9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="6" t="n">
         <v>2930</v>
       </c>
+      <c r="L9" s="7"/>
       <c r="M9" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="8" t="n">
         <v>45747</v>
       </c>
       <c r="O9" s="4" t="n">
@@ -2026,13 +2192,14 @@
       <c r="J10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="6" t="n">
         <v>1380</v>
       </c>
+      <c r="L10" s="7"/>
       <c r="M10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="8" t="n">
         <v>45535</v>
       </c>
       <c r="O10" s="4" t="n">
@@ -2061,13 +2228,14 @@
       <c r="J11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="6" t="n">
         <v>1550</v>
       </c>
+      <c r="L11" s="7"/>
       <c r="M11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="N11" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O11" s="4" t="n">
@@ -2096,13 +2264,14 @@
       <c r="J12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="6" t="n">
         <v>1400</v>
       </c>
+      <c r="L12" s="7"/>
       <c r="M12" s="4" t="n">
         <v>1300</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="N12" s="8" t="n">
         <v>45808</v>
       </c>
       <c r="O12" s="4" t="n">
@@ -2129,13 +2298,14 @@
       <c r="J13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="6" t="n">
         <v>10296</v>
       </c>
+      <c r="L13" s="7"/>
       <c r="M13" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" s="8" t="n">
         <v>46142</v>
       </c>
       <c r="O13" s="4" t="n">
@@ -2164,13 +2334,14 @@
       <c r="J14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="6" t="n">
         <v>150</v>
       </c>
+      <c r="L14" s="7"/>
       <c r="M14" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="8" t="n">
         <v>45688</v>
       </c>
       <c r="O14" s="4" t="n">
@@ -2199,13 +2370,14 @@
       <c r="J15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="6" t="n">
         <v>580</v>
       </c>
+      <c r="L15" s="7"/>
       <c r="M15" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="8" t="n">
         <v>46295</v>
       </c>
       <c r="O15" s="4" t="n">
@@ -2232,13 +2404,14 @@
       <c r="J16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" s="6" t="n">
         <v>3000</v>
       </c>
+      <c r="L16" s="7"/>
       <c r="M16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="8" t="n">
         <v>46538</v>
       </c>
       <c r="O16" s="4" t="n">
@@ -2267,13 +2440,14 @@
       <c r="J17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="6" t="n">
         <v>3740</v>
       </c>
+      <c r="L17" s="7"/>
       <c r="M17" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N17" s="6" t="n">
+      <c r="N17" s="8" t="n">
         <v>45930</v>
       </c>
       <c r="O17" s="4" t="n">
@@ -2302,13 +2476,14 @@
       <c r="J18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="6" t="n">
         <v>2847</v>
       </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="4" t="n">
         <v>610</v>
       </c>
-      <c r="N18" s="6" t="n">
+      <c r="N18" s="8" t="n">
         <v>46418</v>
       </c>
       <c r="O18" s="4" t="n">
@@ -2337,13 +2512,14 @@
       <c r="J19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="K19" s="6" t="n">
         <v>3059</v>
       </c>
+      <c r="L19" s="7"/>
       <c r="M19" s="4" t="n">
         <v>830</v>
       </c>
-      <c r="N19" s="6" t="n">
+      <c r="N19" s="8" t="n">
         <v>46234</v>
       </c>
       <c r="O19" s="4" t="n">
@@ -2372,13 +2548,14 @@
       <c r="J20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="K20" s="6" t="n">
         <v>3792</v>
       </c>
+      <c r="L20" s="7"/>
       <c r="M20" s="4" t="n">
         <v>870</v>
       </c>
-      <c r="N20" s="6" t="n">
+      <c r="N20" s="8" t="n">
         <v>46142</v>
       </c>
       <c r="O20" s="4" t="n">
@@ -2407,13 +2584,14 @@
       <c r="J21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="1" t="n">
+      <c r="K21" s="6" t="n">
         <v>3105</v>
       </c>
+      <c r="L21" s="7"/>
       <c r="M21" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="N21" s="6" t="n">
+      <c r="N21" s="8" t="n">
         <v>46538</v>
       </c>
       <c r="O21" s="4"/>
@@ -2440,13 +2618,14 @@
       <c r="J22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="K22" s="6" t="n">
         <v>2800</v>
       </c>
+      <c r="L22" s="7"/>
       <c r="M22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="6" t="n">
+      <c r="N22" s="8" t="n">
         <v>46387</v>
       </c>
       <c r="O22" s="4" t="n">
@@ -2475,13 +2654,14 @@
       <c r="J23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="K23" s="6" t="n">
         <v>900</v>
       </c>
+      <c r="L23" s="7"/>
       <c r="M23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N23" s="6" t="n">
+      <c r="N23" s="8" t="n">
         <v>46053</v>
       </c>
       <c r="O23" s="4" t="n">
@@ -2510,13 +2690,14 @@
       <c r="J24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="1" t="n">
+      <c r="K24" s="6" t="n">
         <v>770</v>
       </c>
+      <c r="L24" s="7"/>
       <c r="M24" s="4" t="n">
         <v>1930</v>
       </c>
-      <c r="N24" s="6" t="n">
+      <c r="N24" s="8" t="n">
         <v>46507</v>
       </c>
       <c r="O24" s="4" t="n">
@@ -2545,13 +2726,14 @@
       <c r="J25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="1" t="n">
+      <c r="K25" s="6" t="n">
         <v>6000</v>
       </c>
+      <c r="L25" s="7"/>
       <c r="M25" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N25" s="6" t="n">
+      <c r="N25" s="8" t="n">
         <v>45596</v>
       </c>
       <c r="O25" s="4" t="n">
@@ -2578,13 +2760,14 @@
       <c r="J26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="K26" s="6" t="n">
         <v>6000</v>
       </c>
+      <c r="L26" s="7"/>
       <c r="M26" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N26" s="6" t="n">
+      <c r="N26" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O26" s="4" t="n">
@@ -2613,13 +2796,14 @@
       <c r="J27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="1" t="n">
+      <c r="K27" s="6" t="n">
         <v>2500</v>
       </c>
+      <c r="L27" s="7"/>
       <c r="M27" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="N27" s="6" t="n">
+      <c r="N27" s="8" t="n">
         <v>46295</v>
       </c>
       <c r="O27" s="4" t="n">
@@ -2648,13 +2832,14 @@
       <c r="J28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="K28" s="6" t="n">
         <v>1250</v>
       </c>
+      <c r="L28" s="7"/>
       <c r="M28" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N28" s="6" t="n">
+      <c r="N28" s="8" t="n">
         <v>45900</v>
       </c>
       <c r="O28" s="4" t="n">
@@ -2683,13 +2868,14 @@
       <c r="J29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="K29" s="6" t="n">
         <v>1900</v>
       </c>
+      <c r="L29" s="7"/>
       <c r="M29" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N29" s="6" t="n">
+      <c r="N29" s="8" t="n">
         <v>46053</v>
       </c>
       <c r="O29" s="4" t="n">
@@ -2718,13 +2904,14 @@
       <c r="J30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="K30" s="6" t="n">
         <v>48265</v>
       </c>
+      <c r="L30" s="7"/>
       <c r="M30" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="N30" s="6" t="n">
+      <c r="N30" s="8" t="n">
         <v>46265</v>
       </c>
       <c r="O30" s="4" t="n">
@@ -2753,13 +2940,14 @@
       <c r="J31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="K31" s="6" t="n">
         <v>48265</v>
       </c>
+      <c r="L31" s="7"/>
       <c r="M31" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="N31" s="6" t="n">
+      <c r="N31" s="8" t="n">
         <v>46265</v>
       </c>
       <c r="O31" s="4" t="n">
@@ -2788,13 +2976,14 @@
       <c r="J32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="K32" s="6" t="n">
         <v>680</v>
       </c>
+      <c r="L32" s="7"/>
       <c r="M32" s="4" t="n">
         <v>214</v>
       </c>
-      <c r="N32" s="6" t="n">
+      <c r="N32" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O32" s="4" t="n">
@@ -2823,13 +3012,14 @@
       <c r="J33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="K33" s="6" t="n">
         <v>111.33</v>
       </c>
+      <c r="L33" s="7"/>
       <c r="M33" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N33" s="6" t="n">
+      <c r="N33" s="8" t="n">
         <v>45961</v>
       </c>
       <c r="O33" s="4" t="n">
@@ -2858,13 +3048,14 @@
       <c r="J34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="1" t="n">
+      <c r="K34" s="6" t="n">
         <v>770</v>
       </c>
+      <c r="L34" s="7"/>
       <c r="M34" s="4" t="n">
         <v>320</v>
       </c>
-      <c r="N34" s="6" t="n">
+      <c r="N34" s="8" t="n">
         <v>46387</v>
       </c>
       <c r="O34" s="4" t="n">
@@ -2893,13 +3084,14 @@
       <c r="J35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="1" t="n">
+      <c r="K35" s="6" t="n">
         <v>6000</v>
       </c>
+      <c r="L35" s="7"/>
       <c r="M35" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="N35" s="6" t="n">
+      <c r="N35" s="8" t="n">
         <v>46265</v>
       </c>
       <c r="O35" s="4" t="n">
@@ -2919,7 +3111,7 @@
       <c r="G36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -2928,13 +3120,14 @@
       <c r="J36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="K36" s="6" t="n">
         <v>9800</v>
       </c>
+      <c r="L36" s="7"/>
       <c r="M36" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="N36" s="6" t="n">
+      <c r="N36" s="8" t="n">
         <v>46599</v>
       </c>
       <c r="O36" s="4" t="n">
@@ -2963,11 +3156,12 @@
       <c r="J37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="K37" s="6" t="n">
         <v>1572</v>
       </c>
+      <c r="L37" s="7"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="6" t="n">
+      <c r="N37" s="8" t="n">
         <v>45657</v>
       </c>
       <c r="O37" s="4" t="n">
@@ -2996,13 +3190,14 @@
       <c r="J38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="1" t="n">
+      <c r="K38" s="6" t="n">
         <v>275</v>
       </c>
+      <c r="L38" s="7"/>
       <c r="M38" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N38" s="6" t="n">
+      <c r="N38" s="8" t="n">
         <v>45535</v>
       </c>
       <c r="O38" s="4" t="n">
@@ -3031,13 +3226,14 @@
       <c r="J39" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K39" s="1" t="n">
+      <c r="K39" s="6" t="n">
         <v>1035</v>
       </c>
+      <c r="L39" s="7"/>
       <c r="M39" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="N39" s="6" t="n">
+      <c r="N39" s="8" t="n">
         <v>45869</v>
       </c>
       <c r="O39" s="4" t="n">
@@ -3066,13 +3262,14 @@
       <c r="J40" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K40" s="1" t="n">
+      <c r="K40" s="6" t="n">
         <v>687.5</v>
       </c>
+      <c r="L40" s="7"/>
       <c r="M40" s="4" t="n">
         <v>680</v>
       </c>
-      <c r="N40" s="6" t="n">
+      <c r="N40" s="8" t="n">
         <v>47026</v>
       </c>
       <c r="O40" s="4" t="n">
@@ -3101,13 +3298,14 @@
       <c r="J41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K41" s="1" t="n">
+      <c r="K41" s="6" t="n">
         <v>790</v>
       </c>
+      <c r="L41" s="7"/>
       <c r="M41" s="4" t="n">
         <v>1900</v>
       </c>
-      <c r="N41" s="6" t="n">
+      <c r="N41" s="8" t="n">
         <v>46295</v>
       </c>
       <c r="O41" s="4" t="n">
@@ -3136,13 +3334,14 @@
       <c r="J42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K42" s="1" t="n">
+      <c r="K42" s="6" t="n">
         <v>4300</v>
       </c>
+      <c r="L42" s="7"/>
       <c r="M42" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="N42" s="6" t="n">
+      <c r="N42" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O42" s="4" t="n">
@@ -3171,11 +3370,12 @@
       <c r="J43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="1" t="n">
+      <c r="K43" s="6" t="n">
         <v>21353</v>
       </c>
+      <c r="L43" s="7"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="6" t="n">
+      <c r="N43" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O43" s="4" t="n">
@@ -3204,13 +3404,14 @@
       <c r="J44" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K44" s="1" t="n">
+      <c r="K44" s="6" t="n">
         <v>760</v>
       </c>
+      <c r="L44" s="7"/>
       <c r="M44" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="N44" s="6" t="n">
+      <c r="N44" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O44" s="4" t="n">
@@ -3239,13 +3440,14 @@
       <c r="J45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K45" s="1" t="n">
+      <c r="K45" s="6" t="n">
         <v>437.5</v>
       </c>
+      <c r="L45" s="7"/>
       <c r="M45" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N45" s="6" t="n">
+      <c r="N45" s="8" t="n">
         <v>46265</v>
       </c>
       <c r="O45" s="4" t="n">
@@ -3274,13 +3476,14 @@
       <c r="J46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K46" s="1" t="n">
+      <c r="K46" s="6" t="n">
         <v>2000</v>
       </c>
+      <c r="L46" s="7"/>
       <c r="M46" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="N46" s="6" t="n">
+      <c r="N46" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O46" s="4" t="n">
@@ -3309,13 +3512,14 @@
       <c r="J47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K47" s="1" t="n">
+      <c r="K47" s="6" t="n">
         <v>1178</v>
       </c>
+      <c r="L47" s="7"/>
       <c r="M47" s="4" t="n">
         <v>2987</v>
       </c>
-      <c r="N47" s="6" t="n">
+      <c r="N47" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O47" s="4" t="n">
@@ -3344,13 +3548,14 @@
       <c r="J48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K48" s="1" t="n">
+      <c r="K48" s="6" t="n">
         <v>7290</v>
       </c>
+      <c r="L48" s="7"/>
       <c r="M48" s="4" t="n">
         <v>360</v>
       </c>
-      <c r="N48" s="6" t="n">
+      <c r="N48" s="8" t="n">
         <v>45930</v>
       </c>
       <c r="O48" s="4" t="n">
@@ -3379,13 +3584,14 @@
       <c r="J49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K49" s="1" t="n">
+      <c r="K49" s="6" t="n">
         <v>1223.75</v>
       </c>
+      <c r="L49" s="7"/>
       <c r="M49" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N49" s="6" t="n">
+      <c r="N49" s="8" t="n">
         <v>46295</v>
       </c>
       <c r="O49" s="4" t="n">
@@ -3412,13 +3618,14 @@
       <c r="J50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K50" s="1" t="n">
+      <c r="K50" s="6" t="n">
         <v>751.3</v>
       </c>
+      <c r="L50" s="7"/>
       <c r="M50" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="N50" s="6" t="n">
+      <c r="N50" s="8" t="n">
         <v>45961</v>
       </c>
       <c r="O50" s="4" t="n">
@@ -3447,13 +3654,14 @@
       <c r="J51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K51" s="1" t="n">
+      <c r="K51" s="6" t="n">
         <v>1000</v>
       </c>
+      <c r="L51" s="7"/>
       <c r="M51" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="N51" s="6" t="n">
+      <c r="N51" s="8" t="n">
         <v>45961</v>
       </c>
       <c r="O51" s="4" t="n">
@@ -3482,13 +3690,14 @@
       <c r="J52" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K52" s="1" t="n">
+      <c r="K52" s="6" t="n">
         <v>11445</v>
       </c>
+      <c r="L52" s="7"/>
       <c r="M52" s="4" t="n">
         <v>2480</v>
       </c>
-      <c r="N52" s="6" t="n">
+      <c r="N52" s="8" t="n">
         <v>46173</v>
       </c>
       <c r="O52" s="4" t="n">
@@ -3517,13 +3726,14 @@
       <c r="J53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="1" t="n">
+      <c r="K53" s="6" t="n">
         <v>5700</v>
       </c>
+      <c r="L53" s="7"/>
       <c r="M53" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N53" s="6" t="n">
+      <c r="N53" s="8" t="n">
         <v>46234</v>
       </c>
       <c r="O53" s="4" t="n">
@@ -3552,13 +3762,14 @@
       <c r="J54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K54" s="1" t="n">
+      <c r="K54" s="6" t="n">
         <v>750</v>
       </c>
+      <c r="L54" s="7"/>
       <c r="M54" s="4" t="n">
         <v>255</v>
       </c>
-      <c r="N54" s="6" t="n">
+      <c r="N54" s="8" t="n">
         <v>45961</v>
       </c>
       <c r="O54" s="4" t="n">
@@ -3587,13 +3798,14 @@
       <c r="J55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K55" s="1" t="n">
+      <c r="K55" s="6" t="n">
         <v>700</v>
       </c>
+      <c r="L55" s="7"/>
       <c r="M55" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="N55" s="6" t="n">
+      <c r="N55" s="8" t="n">
         <v>45657</v>
       </c>
       <c r="O55" s="4" t="n">
@@ -3622,13 +3834,14 @@
       <c r="J56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K56" s="1" t="n">
+      <c r="K56" s="6" t="n">
         <v>6990</v>
       </c>
+      <c r="L56" s="7"/>
       <c r="M56" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N56" s="6" t="n">
+      <c r="N56" s="8" t="n">
         <v>46265</v>
       </c>
       <c r="O56" s="4" t="n">
@@ -3657,13 +3870,14 @@
       <c r="J57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="1" t="n">
+      <c r="K57" s="6" t="n">
         <v>4160</v>
       </c>
+      <c r="L57" s="7"/>
       <c r="M57" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="N57" s="6" t="n">
+      <c r="N57" s="8" t="n">
         <v>45565</v>
       </c>
       <c r="O57" s="4" t="n">
@@ -3692,13 +3906,14 @@
       <c r="J58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K58" s="1" t="n">
+      <c r="K58" s="6" t="n">
         <v>3700</v>
       </c>
+      <c r="L58" s="7"/>
       <c r="M58" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="N58" s="6" t="n">
+      <c r="N58" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O58" s="4" t="n">
@@ -3727,13 +3942,14 @@
       <c r="J59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K59" s="1" t="n">
+      <c r="K59" s="6" t="n">
         <v>8030</v>
       </c>
+      <c r="L59" s="7"/>
       <c r="M59" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N59" s="6" t="n">
+      <c r="N59" s="8" t="n">
         <v>46053</v>
       </c>
       <c r="O59" s="4" t="n">
@@ -3762,13 +3978,14 @@
       <c r="J60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K60" s="1" t="n">
+      <c r="K60" s="6" t="n">
         <v>2700</v>
       </c>
+      <c r="L60" s="7"/>
       <c r="M60" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="N60" s="6" t="n">
+      <c r="N60" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O60" s="4" t="n">
@@ -3797,13 +4014,14 @@
       <c r="J61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K61" s="1" t="n">
+      <c r="K61" s="6" t="n">
         <v>3200</v>
       </c>
+      <c r="L61" s="7"/>
       <c r="M61" s="4" t="n">
         <v>790</v>
       </c>
-      <c r="N61" s="6" t="n">
+      <c r="N61" s="8" t="n">
         <v>46203</v>
       </c>
       <c r="O61" s="4" t="n">
@@ -3832,13 +4050,14 @@
       <c r="J62" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K62" s="1" t="n">
+      <c r="K62" s="6" t="n">
         <v>310</v>
       </c>
+      <c r="L62" s="7"/>
       <c r="M62" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="N62" s="6" t="n">
+      <c r="N62" s="8" t="n">
         <v>45900</v>
       </c>
       <c r="O62" s="4" t="n">
@@ -3867,13 +4086,14 @@
       <c r="J63" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K63" s="1" t="n">
+      <c r="K63" s="6" t="n">
         <v>350</v>
       </c>
+      <c r="L63" s="7"/>
       <c r="M63" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N63" s="6" t="n">
+      <c r="N63" s="8" t="n">
         <v>45777</v>
       </c>
       <c r="O63" s="4" t="n">
@@ -3902,13 +4122,14 @@
       <c r="J64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K64" s="1" t="n">
+      <c r="K64" s="6" t="n">
         <v>11911</v>
       </c>
+      <c r="L64" s="7"/>
       <c r="M64" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="N64" s="6" t="n">
+      <c r="N64" s="8" t="n">
         <v>45747</v>
       </c>
       <c r="O64" s="4" t="n">
@@ -3937,13 +4158,14 @@
       <c r="J65" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K65" s="1" t="n">
+      <c r="K65" s="6" t="n">
         <v>1000</v>
       </c>
+      <c r="L65" s="7"/>
       <c r="M65" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N65" s="6" t="n">
+      <c r="N65" s="8" t="n">
         <v>46234</v>
       </c>
       <c r="O65" s="4" t="n">
@@ -3972,13 +4194,14 @@
       <c r="J66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K66" s="1" t="n">
+      <c r="K66" s="6" t="n">
         <v>3500</v>
       </c>
+      <c r="L66" s="7"/>
       <c r="M66" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N66" s="6" t="n">
+      <c r="N66" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O66" s="4" t="n">
@@ -4007,13 +4230,14 @@
       <c r="J67" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K67" s="1" t="n">
+      <c r="K67" s="6" t="n">
         <v>850</v>
       </c>
+      <c r="L67" s="7"/>
       <c r="M67" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="N67" s="6" t="n">
+      <c r="N67" s="8" t="n">
         <v>46295</v>
       </c>
       <c r="O67" s="4" t="n">
@@ -4042,13 +4266,14 @@
       <c r="J68" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K68" s="1" t="n">
+      <c r="K68" s="6" t="n">
         <v>6494</v>
       </c>
+      <c r="L68" s="7"/>
       <c r="M68" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="N68" s="6" t="n">
+      <c r="N68" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O68" s="4" t="n">
@@ -4077,13 +4302,14 @@
       <c r="J69" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K69" s="1" t="n">
+      <c r="K69" s="6" t="n">
         <v>34000</v>
       </c>
+      <c r="L69" s="7"/>
       <c r="M69" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="N69" s="6" t="n">
+      <c r="N69" s="8" t="n">
         <v>46053</v>
       </c>
       <c r="O69" s="4" t="n">
@@ -4110,13 +4336,14 @@
       <c r="J70" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K70" s="1" t="n">
+      <c r="K70" s="6" t="n">
         <v>3750</v>
       </c>
+      <c r="L70" s="7"/>
       <c r="M70" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="N70" s="6" t="n">
+      <c r="N70" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O70" s="4" t="n">
@@ -4145,13 +4372,14 @@
       <c r="J71" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K71" s="1" t="n">
+      <c r="K71" s="6" t="n">
         <v>1200</v>
       </c>
+      <c r="L71" s="7"/>
       <c r="M71" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="N71" s="6" t="n">
+      <c r="N71" s="8" t="n">
         <v>45565</v>
       </c>
       <c r="O71" s="4" t="n">
@@ -4178,13 +4406,14 @@
       <c r="J72" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K72" s="1" t="n">
+      <c r="K72" s="6" t="n">
         <v>170</v>
       </c>
+      <c r="L72" s="7"/>
       <c r="M72" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="N72" s="6" t="n">
+      <c r="N72" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O72" s="4" t="n">
@@ -4211,13 +4440,14 @@
       <c r="J73" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K73" s="1" t="n">
+      <c r="K73" s="6" t="n">
         <v>1500</v>
       </c>
+      <c r="L73" s="7"/>
       <c r="M73" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N73" s="6" t="n">
+      <c r="N73" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O73" s="4" t="n">
@@ -4235,7 +4465,7 @@
       <c r="G74" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="9" t="s">
         <v>214</v>
       </c>
       <c r="I74" s="4" t="s">
@@ -4244,13 +4474,14 @@
       <c r="J74" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K74" s="1" t="n">
+      <c r="K74" s="6" t="n">
         <v>500</v>
       </c>
+      <c r="L74" s="7"/>
       <c r="M74" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="N74" s="6" t="n">
+      <c r="N74" s="8" t="n">
         <v>45991</v>
       </c>
       <c r="O74" s="4" t="n">
@@ -4268,7 +4499,7 @@
       <c r="G75" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="9" t="s">
         <v>204</v>
       </c>
       <c r="I75" s="4" t="s">
@@ -4277,13 +4508,14 @@
       <c r="J75" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K75" s="1" t="n">
+      <c r="K75" s="6" t="n">
         <v>1000</v>
       </c>
+      <c r="L75" s="7"/>
       <c r="M75" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="N75" s="6" t="n">
+      <c r="N75" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O75" s="4" t="n">
@@ -4303,7 +4535,7 @@
       <c r="G76" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I76" s="4" t="s">
@@ -4312,13 +4544,14 @@
       <c r="J76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K76" s="1" t="n">
+      <c r="K76" s="6" t="n">
         <v>1685</v>
       </c>
+      <c r="L76" s="7"/>
       <c r="M76" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="N76" s="6" t="n">
+      <c r="N76" s="8" t="n">
         <v>46418</v>
       </c>
       <c r="O76" s="4" t="n">
@@ -4338,7 +4571,7 @@
       <c r="G77" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="9" t="s">
         <v>121</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -4347,13 +4580,14 @@
       <c r="J77" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K77" s="1" t="n">
+      <c r="K77" s="6" t="n">
         <v>7990</v>
       </c>
+      <c r="L77" s="7"/>
       <c r="M77" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="N77" s="6" t="n">
+      <c r="N77" s="8" t="n">
         <v>46538</v>
       </c>
       <c r="O77" s="4" t="n">
@@ -4380,13 +4614,14 @@
       <c r="J78" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K78" s="1" t="n">
+      <c r="K78" s="6" t="n">
         <v>980</v>
       </c>
+      <c r="L78" s="7"/>
       <c r="M78" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="N78" s="6" t="n">
+      <c r="N78" s="8" t="n">
         <v>46295</v>
       </c>
       <c r="O78" s="4" t="n">
@@ -4397,30 +4632,30 @@
       <c r="D79" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="9" t="s">
+      <c r="E79" s="10"/>
+      <c r="F79" s="11" t="s">
         <v>226</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K79" s="9" t="n">
+      <c r="K79" s="12" t="n">
         <v>1200</v>
       </c>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9" t="n">
+      <c r="L79" s="7"/>
+      <c r="M79" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="N79" s="6" t="n">
+      <c r="N79" s="8" t="n">
         <v>45777</v>
       </c>
       <c r="O79" s="4" t="n">
@@ -4431,30 +4666,30 @@
       <c r="D80" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="9" t="s">
+      <c r="E80" s="10"/>
+      <c r="F80" s="11" t="s">
         <v>229</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K80" s="9" t="n">
+      <c r="K80" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9" t="n">
+      <c r="L80" s="7"/>
+      <c r="M80" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="N80" s="6" t="n">
+      <c r="N80" s="8" t="n">
         <v>46326</v>
       </c>
       <c r="O80" s="4" t="n">
@@ -4465,30 +4700,30 @@
       <c r="D81" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="9" t="s">
+      <c r="E81" s="10"/>
+      <c r="F81" s="11" t="s">
         <v>232</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K81" s="9" t="n">
+      <c r="K81" s="12" t="n">
         <v>385</v>
       </c>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9" t="n">
+      <c r="L81" s="7"/>
+      <c r="M81" s="11" t="n">
         <v>500</v>
       </c>
-      <c r="N81" s="6" t="n">
+      <c r="N81" s="8" t="n">
         <v>46538</v>
       </c>
       <c r="O81" s="4" t="n">
@@ -4499,30 +4734,30 @@
       <c r="D82" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="9" t="s">
+      <c r="E82" s="10"/>
+      <c r="F82" s="11" t="s">
         <v>233</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="I82" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K82" s="9" t="n">
+      <c r="K82" s="12" t="n">
         <v>330</v>
       </c>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9" t="n">
+      <c r="L82" s="7"/>
+      <c r="M82" s="11" t="n">
         <v>270</v>
       </c>
-      <c r="N82" s="6" t="n">
+      <c r="N82" s="8" t="n">
         <v>46507</v>
       </c>
       <c r="O82" s="4" t="n">
@@ -4533,32 +4768,32 @@
       <c r="D83" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="11" t="s">
         <v>236</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="K83" s="9" t="n">
+      <c r="K83" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9" t="n">
+      <c r="L83" s="7"/>
+      <c r="M83" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="N83" s="6" t="n">
+      <c r="N83" s="8" t="n">
         <v>46446</v>
       </c>
       <c r="O83" s="4" t="n">
@@ -4569,30 +4804,30 @@
       <c r="D84" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="9" t="s">
+      <c r="E84" s="10"/>
+      <c r="F84" s="11" t="s">
         <v>237</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I84" s="9" t="s">
+      <c r="I84" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K84" s="9" t="n">
+      <c r="K84" s="12" t="n">
         <v>1320</v>
       </c>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9" t="n">
+      <c r="L84" s="7"/>
+      <c r="M84" s="11" t="n">
         <v>130</v>
       </c>
-      <c r="N84" s="6" t="n">
+      <c r="N84" s="8" t="n">
         <v>46660</v>
       </c>
       <c r="O84" s="4" t="n">
@@ -4603,30 +4838,30 @@
       <c r="D85" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="9" t="s">
+      <c r="E85" s="10"/>
+      <c r="F85" s="11" t="s">
         <v>239</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="I85" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="K85" s="9" t="n">
+      <c r="K85" s="12" t="n">
         <v>1200</v>
       </c>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9" t="n">
+      <c r="L85" s="7"/>
+      <c r="M85" s="11" t="n">
         <v>140</v>
       </c>
-      <c r="N85" s="6" t="n">
+      <c r="N85" s="8" t="n">
         <v>45808</v>
       </c>
       <c r="O85" s="4" t="n">
@@ -4637,30 +4872,30 @@
       <c r="D86" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="9" t="s">
+      <c r="E86" s="10"/>
+      <c r="F86" s="11" t="s">
         <v>242</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="I86" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="J86" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K86" s="9" t="n">
+      <c r="K86" s="12" t="n">
         <v>3000</v>
       </c>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9" t="n">
+      <c r="L86" s="7"/>
+      <c r="M86" s="11" t="n">
         <v>150</v>
       </c>
-      <c r="N86" s="6" t="n">
+      <c r="N86" s="8" t="n">
         <v>45991</v>
       </c>
       <c r="O86" s="4" t="n">
@@ -4671,30 +4906,30 @@
       <c r="D87" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9" t="s">
+      <c r="E87" s="10"/>
+      <c r="F87" s="11" t="s">
         <v>244</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I87" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K87" s="9" t="n">
+      <c r="K87" s="12" t="n">
         <v>1850</v>
       </c>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9" t="n">
+      <c r="L87" s="7"/>
+      <c r="M87" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="N87" s="6" t="n">
+      <c r="N87" s="8" t="n">
         <v>46173</v>
       </c>
       <c r="O87" s="4" t="n">
@@ -4705,30 +4940,30 @@
       <c r="D88" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9" t="s">
+      <c r="E88" s="10"/>
+      <c r="F88" s="11" t="s">
         <v>245</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="I88" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K88" s="9" t="n">
+      <c r="K88" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9" t="n">
+      <c r="L88" s="7"/>
+      <c r="M88" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="N88" s="6" t="n">
+      <c r="N88" s="8" t="n">
         <v>45869</v>
       </c>
       <c r="O88" s="4" t="n">
@@ -4739,30 +4974,30 @@
       <c r="D89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9" t="s">
+      <c r="E89" s="10"/>
+      <c r="F89" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="K89" s="9" t="n">
+      <c r="K89" s="12" t="n">
         <v>138</v>
       </c>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9" t="n">
+      <c r="L89" s="7"/>
+      <c r="M89" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="N89" s="6" t="n">
+      <c r="N89" s="8" t="n">
         <v>45838</v>
       </c>
       <c r="O89" s="4" t="n">
@@ -4773,30 +5008,30 @@
       <c r="D90" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="9" t="s">
+      <c r="E90" s="10"/>
+      <c r="F90" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I90" s="9" t="s">
+      <c r="I90" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="J90" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K90" s="9" t="n">
+      <c r="K90" s="12" t="n">
         <v>950</v>
       </c>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9" t="n">
+      <c r="L90" s="7"/>
+      <c r="M90" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="N90" s="6" t="n">
+      <c r="N90" s="8" t="n">
         <v>45412</v>
       </c>
       <c r="O90" s="4" t="n">
@@ -4807,30 +5042,30 @@
       <c r="D91" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="9" t="s">
+      <c r="E91" s="10"/>
+      <c r="F91" s="11" t="s">
         <v>248</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="I91" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J91" s="9" t="s">
+      <c r="J91" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K91" s="9" t="n">
+      <c r="K91" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9" t="n">
+      <c r="L91" s="7"/>
+      <c r="M91" s="11" t="n">
         <v>130</v>
       </c>
-      <c r="N91" s="6" t="n">
+      <c r="N91" s="8" t="n">
         <v>45838</v>
       </c>
       <c r="O91" s="4" t="n">
@@ -4841,30 +5076,30 @@
       <c r="D92" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="9" t="s">
+      <c r="E92" s="10"/>
+      <c r="F92" s="11" t="s">
         <v>249</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J92" s="9" t="s">
+      <c r="J92" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K92" s="9" t="n">
+      <c r="K92" s="12" t="n">
         <v>605</v>
       </c>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9" t="n">
+      <c r="L92" s="7"/>
+      <c r="M92" s="11" t="n">
         <v>530</v>
       </c>
-      <c r="N92" s="6" t="n">
+      <c r="N92" s="8" t="n">
         <v>46538</v>
       </c>
       <c r="O92" s="4" t="n">
@@ -4875,30 +5110,30 @@
       <c r="D93" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="9" t="s">
+      <c r="E93" s="10"/>
+      <c r="F93" s="11" t="s">
         <v>250</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J93" s="9" t="s">
+      <c r="J93" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K93" s="9" t="n">
+      <c r="K93" s="12" t="n">
         <v>3300</v>
       </c>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9" t="n">
+      <c r="L93" s="7"/>
+      <c r="M93" s="11" t="n">
         <v>195</v>
       </c>
-      <c r="N93" s="6" t="n">
+      <c r="N93" s="8" t="n">
         <v>45991</v>
       </c>
       <c r="O93" s="4" t="n">
@@ -4909,30 +5144,30 @@
       <c r="D94" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="9" t="s">
+      <c r="E94" s="10"/>
+      <c r="F94" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="I94" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J94" s="9" t="s">
+      <c r="J94" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="K94" s="9" t="n">
+      <c r="K94" s="12" t="n">
         <v>260</v>
       </c>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9" t="n">
+      <c r="L94" s="7"/>
+      <c r="M94" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="N94" s="6" t="n">
+      <c r="N94" s="8" t="n">
         <v>46326</v>
       </c>
       <c r="O94" s="4" t="n">
@@ -4943,30 +5178,30 @@
       <c r="D95" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="9" t="s">
+      <c r="E95" s="10"/>
+      <c r="F95" s="11" t="s">
         <v>253</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="I95" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J95" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K95" s="9" t="n">
+      <c r="K95" s="12" t="n">
         <v>800</v>
       </c>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9" t="n">
+      <c r="L95" s="7"/>
+      <c r="M95" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="N95" s="6" t="n">
+      <c r="N95" s="8" t="n">
         <v>46446</v>
       </c>
       <c r="O95" s="4" t="n">
@@ -4977,30 +5212,30 @@
       <c r="D96" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="9" t="s">
+      <c r="E96" s="10"/>
+      <c r="F96" s="11" t="s">
         <v>254</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="I96" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J96" s="9" t="s">
+      <c r="J96" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K96" s="9" t="n">
+      <c r="K96" s="12" t="n">
         <v>465</v>
       </c>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9" t="n">
+      <c r="L96" s="7"/>
+      <c r="M96" s="11" t="n">
         <v>312</v>
       </c>
-      <c r="N96" s="6" t="n">
+      <c r="N96" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O96" s="4" t="n">
@@ -5011,30 +5246,30 @@
       <c r="D97" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="9" t="s">
+      <c r="E97" s="10"/>
+      <c r="F97" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="I97" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J97" s="9" t="s">
+      <c r="J97" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K97" s="9" t="n">
+      <c r="K97" s="12" t="n">
         <v>304</v>
       </c>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9" t="n">
+      <c r="L97" s="7"/>
+      <c r="M97" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="N97" s="6" t="n">
+      <c r="N97" s="8" t="n">
         <v>45991</v>
       </c>
       <c r="O97" s="4" t="n">
@@ -5045,30 +5280,30 @@
       <c r="D98" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="9" t="s">
+      <c r="E98" s="10"/>
+      <c r="F98" s="11" t="s">
         <v>257</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I98" s="9" t="s">
+      <c r="I98" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="J98" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K98" s="9" t="n">
+      <c r="K98" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9" t="n">
+      <c r="L98" s="7"/>
+      <c r="M98" s="11" t="n">
         <v>190</v>
       </c>
-      <c r="N98" s="6" t="n">
+      <c r="N98" s="8" t="n">
         <v>46203</v>
       </c>
       <c r="O98" s="4" t="n">
@@ -5079,30 +5314,30 @@
       <c r="D99" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="9" t="s">
+      <c r="E99" s="10"/>
+      <c r="F99" s="11" t="s">
         <v>259</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I99" s="9" t="s">
+      <c r="I99" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J99" s="9" t="s">
+      <c r="J99" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K99" s="9" t="n">
+      <c r="K99" s="12" t="n">
         <v>190</v>
       </c>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9" t="n">
+      <c r="L99" s="7"/>
+      <c r="M99" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="N99" s="6" t="n">
+      <c r="N99" s="8" t="n">
         <v>46203</v>
       </c>
       <c r="O99" s="4" t="n">
@@ -5113,30 +5348,30 @@
       <c r="D100" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="9" t="s">
+      <c r="E100" s="10"/>
+      <c r="F100" s="11" t="s">
         <v>259</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="I100" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J100" s="9" t="s">
+      <c r="J100" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K100" s="9" t="n">
+      <c r="K100" s="12" t="n">
         <v>165</v>
       </c>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9" t="n">
+      <c r="L100" s="7"/>
+      <c r="M100" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="N100" s="6" t="n">
+      <c r="N100" s="8" t="n">
         <v>46173</v>
       </c>
       <c r="O100" s="4" t="n">
@@ -5147,30 +5382,30 @@
       <c r="D101" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="9" t="s">
+      <c r="E101" s="10"/>
+      <c r="F101" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="I101" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J101" s="9" t="s">
+      <c r="J101" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K101" s="9" t="n">
+      <c r="K101" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9" t="n">
+      <c r="L101" s="7"/>
+      <c r="M101" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="N101" s="6" t="n">
+      <c r="N101" s="8" t="n">
         <v>45747</v>
       </c>
       <c r="O101" s="4" t="n">
@@ -5181,30 +5416,30 @@
       <c r="D102" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="9" t="s">
+      <c r="E102" s="10"/>
+      <c r="F102" s="11" t="s">
         <v>263</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I102" s="9" t="s">
+      <c r="I102" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J102" s="9" t="s">
+      <c r="J102" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K102" s="9" t="n">
+      <c r="K102" s="12" t="n">
         <v>380</v>
       </c>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9" t="n">
+      <c r="L102" s="7"/>
+      <c r="M102" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="N102" s="6" t="n">
+      <c r="N102" s="8" t="n">
         <v>46356</v>
       </c>
       <c r="O102" s="4" t="n">
@@ -5215,28 +5450,28 @@
       <c r="D103" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="9" t="s">
+      <c r="E103" s="10"/>
+      <c r="F103" s="11" t="s">
         <v>264</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9" t="s">
+      <c r="I103" s="11"/>
+      <c r="J103" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="K103" s="9" t="n">
+      <c r="K103" s="12" t="n">
         <v>2500</v>
       </c>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9" t="n">
+      <c r="L103" s="7"/>
+      <c r="M103" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="N103" s="6" t="n">
+      <c r="N103" s="8" t="n">
         <v>45808</v>
       </c>
       <c r="O103" s="4" t="n">
@@ -5247,28 +5482,28 @@
       <c r="D104" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="9" t="s">
+      <c r="E104" s="10"/>
+      <c r="F104" s="11" t="s">
         <v>264</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9" t="s">
+      <c r="I104" s="11"/>
+      <c r="J104" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="K104" s="9" t="n">
+      <c r="K104" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9" t="n">
+      <c r="L104" s="7"/>
+      <c r="M104" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="N104" s="6" t="n">
+      <c r="N104" s="8" t="n">
         <v>45808</v>
       </c>
       <c r="O104" s="4" t="n">
@@ -5279,30 +5514,30 @@
       <c r="D105" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="9" t="s">
+      <c r="E105" s="10"/>
+      <c r="F105" s="11" t="s">
         <v>268</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="J105" s="9" t="s">
+      <c r="J105" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K105" s="9" t="n">
+      <c r="K105" s="12" t="n">
         <v>3800</v>
       </c>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9" t="n">
+      <c r="L105" s="7"/>
+      <c r="M105" s="11" t="n">
         <v>53</v>
       </c>
-      <c r="N105" s="6" t="n">
+      <c r="N105" s="8" t="n">
         <v>46203</v>
       </c>
       <c r="O105" s="4" t="n">
@@ -5313,30 +5548,30 @@
       <c r="D106" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="9" t="s">
+      <c r="E106" s="10"/>
+      <c r="F106" s="11" t="s">
         <v>273</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="I106" s="9" t="s">
+      <c r="I106" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="J106" s="9" t="s">
+      <c r="J106" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K106" s="9" t="n">
+      <c r="K106" s="12" t="n">
         <v>6250</v>
       </c>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9" t="n">
+      <c r="L106" s="7"/>
+      <c r="M106" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="N106" s="6" t="n">
+      <c r="N106" s="8" t="n">
         <v>45504</v>
       </c>
       <c r="O106" s="4" t="n">
@@ -5347,30 +5582,30 @@
       <c r="D107" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E107" s="8"/>
-      <c r="F107" s="9" t="s">
+      <c r="E107" s="10"/>
+      <c r="F107" s="11" t="s">
         <v>274</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I107" s="9" t="s">
+      <c r="I107" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J107" s="9" t="s">
+      <c r="J107" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="K107" s="9" t="n">
+      <c r="K107" s="12" t="n">
         <v>1227</v>
       </c>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9" t="n">
+      <c r="L107" s="7"/>
+      <c r="M107" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="N107" s="6" t="n">
+      <c r="N107" s="8" t="n">
         <v>46507</v>
       </c>
       <c r="O107" s="4" t="n">
@@ -5381,28 +5616,28 @@
       <c r="D108" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="9" t="s">
+      <c r="E108" s="10"/>
+      <c r="F108" s="11" t="s">
         <v>276</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H108" s="9" t="s">
+      <c r="H108" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9" t="s">
+      <c r="I108" s="11"/>
+      <c r="J108" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="K108" s="9" t="n">
+      <c r="K108" s="12" t="n">
         <v>157</v>
       </c>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9" t="n">
+      <c r="L108" s="7"/>
+      <c r="M108" s="11" t="n">
         <v>120</v>
       </c>
-      <c r="N108" s="6" t="n">
+      <c r="N108" s="8" t="n">
         <v>46295</v>
       </c>
       <c r="O108" s="4" t="n">
@@ -5429,14 +5664,14 @@
       <c r="J109" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K109" s="4" t="n">
+      <c r="K109" s="13" t="n">
         <v>7245</v>
       </c>
-      <c r="L109" s="4"/>
+      <c r="L109" s="7"/>
       <c r="M109" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="N109" s="6" t="n">
+      <c r="N109" s="8" t="n">
         <v>45565</v>
       </c>
       <c r="O109" s="4" t="n">
@@ -5465,14 +5700,14 @@
       <c r="J110" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="K110" s="4" t="n">
+      <c r="K110" s="13" t="n">
         <v>480</v>
       </c>
-      <c r="L110" s="4"/>
+      <c r="L110" s="7"/>
       <c r="M110" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="N110" s="6" t="n">
+      <c r="N110" s="8" t="n">
         <v>46173</v>
       </c>
       <c r="O110" s="4" t="n">
@@ -5501,14 +5736,14 @@
       <c r="J111" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K111" s="4" t="n">
+      <c r="K111" s="13" t="n">
         <v>1100</v>
       </c>
-      <c r="L111" s="4"/>
+      <c r="L111" s="7"/>
       <c r="M111" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="6" t="n">
+      <c r="N111" s="8" t="n">
         <v>46173</v>
       </c>
       <c r="O111" s="4" t="n">
@@ -5535,14 +5770,14 @@
       <c r="J112" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K112" s="4" t="n">
+      <c r="K112" s="13" t="n">
         <v>5500</v>
       </c>
-      <c r="L112" s="4"/>
+      <c r="L112" s="7"/>
       <c r="M112" s="4" t="n">
         <v>720</v>
       </c>
-      <c r="N112" s="6" t="n">
+      <c r="N112" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O112" s="4" t="n">
@@ -5569,14 +5804,14 @@
       <c r="J113" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K113" s="4" t="n">
+      <c r="K113" s="13" t="n">
         <v>935</v>
       </c>
-      <c r="L113" s="4"/>
+      <c r="L113" s="7"/>
       <c r="M113" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N113" s="6" t="n">
+      <c r="N113" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O113" s="4" t="n">
@@ -5605,14 +5840,14 @@
       <c r="J114" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K114" s="4" t="n">
+      <c r="K114" s="13" t="n">
         <v>4400</v>
       </c>
-      <c r="L114" s="4"/>
+      <c r="L114" s="7"/>
       <c r="M114" s="4" t="n">
         <v>560</v>
       </c>
-      <c r="N114" s="6" t="n">
+      <c r="N114" s="8" t="n">
         <v>46053</v>
       </c>
       <c r="O114" s="4" t="n">
@@ -5639,14 +5874,14 @@
       <c r="J115" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="K115" s="4" t="n">
+      <c r="K115" s="13" t="n">
         <v>4539</v>
       </c>
-      <c r="L115" s="4"/>
+      <c r="L115" s="7"/>
       <c r="M115" s="4" t="n">
         <v>2420</v>
       </c>
-      <c r="N115" s="6" t="n">
+      <c r="N115" s="8" t="n">
         <v>45808</v>
       </c>
       <c r="O115" s="4" t="n">
@@ -5675,14 +5910,14 @@
       <c r="J116" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="K116" s="4" t="n">
+      <c r="K116" s="13" t="n">
         <v>450</v>
       </c>
-      <c r="L116" s="4"/>
+      <c r="L116" s="7"/>
       <c r="M116" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="N116" s="6" t="n">
+      <c r="N116" s="8" t="n">
         <v>45657</v>
       </c>
       <c r="O116" s="4" t="n">
@@ -5709,14 +5944,14 @@
       <c r="J117" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K117" s="4" t="n">
+      <c r="K117" s="13" t="n">
         <v>3650</v>
       </c>
-      <c r="L117" s="4"/>
+      <c r="L117" s="7"/>
       <c r="M117" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="N117" s="6" t="n">
+      <c r="N117" s="8" t="n">
         <v>45777</v>
       </c>
       <c r="O117" s="4" t="n">
@@ -5745,14 +5980,14 @@
       <c r="J118" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K118" s="4" t="n">
+      <c r="K118" s="13" t="n">
         <v>29098</v>
       </c>
-      <c r="L118" s="4"/>
+      <c r="L118" s="7"/>
       <c r="M118" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="N118" s="6" t="n">
+      <c r="N118" s="8" t="n">
         <v>46173</v>
       </c>
       <c r="O118" s="4" t="n">
@@ -5781,14 +6016,14 @@
       <c r="J119" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K119" s="4" t="n">
+      <c r="K119" s="13" t="n">
         <v>9800</v>
       </c>
-      <c r="L119" s="4"/>
+      <c r="L119" s="7"/>
       <c r="M119" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N119" s="6" t="n">
+      <c r="N119" s="8" t="n">
         <v>46326</v>
       </c>
       <c r="O119" s="4" t="n">
@@ -5817,14 +6052,14 @@
       <c r="J120" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K120" s="4" t="n">
+      <c r="K120" s="13" t="n">
         <v>7800</v>
       </c>
-      <c r="L120" s="4"/>
+      <c r="L120" s="7"/>
       <c r="M120" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="N120" s="6" t="n">
+      <c r="N120" s="8" t="n">
         <v>45991</v>
       </c>
       <c r="O120" s="4" t="n">
@@ -5853,14 +6088,14 @@
       <c r="J121" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K121" s="4" t="n">
+      <c r="K121" s="13" t="n">
         <v>12000</v>
       </c>
-      <c r="L121" s="4"/>
+      <c r="L121" s="7"/>
       <c r="M121" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="N121" s="6" t="n">
+      <c r="N121" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O121" s="4" t="n">
@@ -5887,14 +6122,14 @@
       <c r="J122" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="K122" s="4" t="n">
+      <c r="K122" s="13" t="n">
         <v>9867</v>
       </c>
-      <c r="L122" s="4"/>
+      <c r="L122" s="7"/>
       <c r="M122" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N122" s="6" t="n">
+      <c r="N122" s="8" t="n">
         <v>46142</v>
       </c>
       <c r="O122" s="4" t="n">
@@ -5921,14 +6156,14 @@
       <c r="J123" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K123" s="4" t="n">
+      <c r="K123" s="13" t="n">
         <v>6500</v>
       </c>
-      <c r="L123" s="4"/>
+      <c r="L123" s="7"/>
       <c r="M123" s="4" t="n">
         <v>810</v>
       </c>
-      <c r="N123" s="6" t="n">
+      <c r="N123" s="8" t="n">
         <v>45930</v>
       </c>
       <c r="O123" s="4" t="n">
@@ -5957,14 +6192,14 @@
       <c r="J124" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="K124" s="4" t="n">
+      <c r="K124" s="13" t="n">
         <v>1120</v>
       </c>
-      <c r="L124" s="4"/>
+      <c r="L124" s="7"/>
       <c r="M124" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="N124" s="6" t="n">
+      <c r="N124" s="8" t="n">
         <v>46203</v>
       </c>
       <c r="O124" s="4" t="n">
@@ -5993,12 +6228,12 @@
       <c r="J125" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="K125" s="4" t="n">
+      <c r="K125" s="13" t="n">
         <v>1120</v>
       </c>
-      <c r="L125" s="4"/>
+      <c r="L125" s="7"/>
       <c r="M125" s="4"/>
-      <c r="N125" s="6" t="n">
+      <c r="N125" s="8" t="n">
         <v>45900</v>
       </c>
       <c r="O125" s="4" t="n">
@@ -6025,14 +6260,14 @@
       <c r="J126" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K126" s="4" t="n">
+      <c r="K126" s="13" t="n">
         <v>1050</v>
       </c>
-      <c r="L126" s="4"/>
+      <c r="L126" s="7"/>
       <c r="M126" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="N126" s="6" t="n">
+      <c r="N126" s="8" t="n">
         <v>45991</v>
       </c>
       <c r="O126" s="4" t="n">
@@ -6061,14 +6296,14 @@
       <c r="J127" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K127" s="4" t="n">
+      <c r="K127" s="13" t="n">
         <v>5600</v>
       </c>
-      <c r="L127" s="4"/>
+      <c r="L127" s="7"/>
       <c r="M127" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N127" s="6" t="n">
+      <c r="N127" s="8" t="n">
         <v>46387</v>
       </c>
       <c r="O127" s="4" t="n">
@@ -6097,14 +6332,14 @@
       <c r="J128" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="K128" s="4" t="n">
+      <c r="K128" s="13" t="n">
         <v>6668.5</v>
       </c>
-      <c r="L128" s="4"/>
+      <c r="L128" s="7"/>
       <c r="M128" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N128" s="6" t="n">
+      <c r="N128" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O128" s="4" t="n">
@@ -6133,14 +6368,14 @@
       <c r="J129" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K129" s="4" t="n">
+      <c r="K129" s="13" t="n">
         <v>1590.88</v>
       </c>
-      <c r="L129" s="4"/>
+      <c r="L129" s="7"/>
       <c r="M129" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N129" s="6" t="n">
+      <c r="N129" s="8" t="n">
         <v>46203</v>
       </c>
       <c r="O129" s="4" t="n">
@@ -6169,14 +6404,14 @@
       <c r="J130" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K130" s="4" t="n">
+      <c r="K130" s="13" t="n">
         <v>1265</v>
       </c>
-      <c r="L130" s="4"/>
+      <c r="L130" s="7"/>
       <c r="M130" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="N130" s="6" t="n">
+      <c r="N130" s="8" t="n">
         <v>45869</v>
       </c>
       <c r="O130" s="4" t="n">
@@ -6205,14 +6440,14 @@
       <c r="J131" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K131" s="4" t="n">
+      <c r="K131" s="13" t="n">
         <v>7000</v>
       </c>
-      <c r="L131" s="4"/>
+      <c r="L131" s="7"/>
       <c r="M131" s="4" t="n">
         <v>170</v>
       </c>
-      <c r="N131" s="6" t="n">
+      <c r="N131" s="8" t="n">
         <v>46477</v>
       </c>
       <c r="O131" s="4"/>
@@ -6239,14 +6474,14 @@
       <c r="J132" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K132" s="4" t="n">
+      <c r="K132" s="13" t="n">
         <v>1125</v>
       </c>
-      <c r="L132" s="4"/>
+      <c r="L132" s="7"/>
       <c r="M132" s="4" t="n">
         <v>944</v>
       </c>
-      <c r="N132" s="6" t="n">
+      <c r="N132" s="8" t="n">
         <v>46356</v>
       </c>
       <c r="O132" s="4"/>
@@ -6273,14 +6508,14 @@
       <c r="J133" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="K133" s="4" t="n">
+      <c r="K133" s="13" t="n">
         <v>1455</v>
       </c>
-      <c r="L133" s="4"/>
+      <c r="L133" s="7"/>
       <c r="M133" s="4" t="n">
         <v>1350</v>
       </c>
-      <c r="N133" s="6" t="n">
+      <c r="N133" s="8" t="n">
         <v>46295</v>
       </c>
       <c r="O133" s="4" t="n">
@@ -6309,14 +6544,14 @@
       <c r="J134" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K134" s="4" t="n">
+      <c r="K134" s="13" t="n">
         <v>567</v>
       </c>
-      <c r="L134" s="4"/>
+      <c r="L134" s="7"/>
       <c r="M134" s="4" t="n">
         <v>3490</v>
       </c>
-      <c r="N134" s="6" t="n">
+      <c r="N134" s="8" t="n">
         <v>46688</v>
       </c>
       <c r="O134" s="4" t="n">
@@ -6345,14 +6580,14 @@
       <c r="J135" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="K135" s="4" t="n">
+      <c r="K135" s="13" t="n">
         <v>1150</v>
       </c>
-      <c r="L135" s="4"/>
+      <c r="L135" s="7"/>
       <c r="M135" s="4" t="n">
         <v>3900</v>
       </c>
-      <c r="N135" s="6" t="n">
+      <c r="N135" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O135" s="4" t="n">
@@ -6381,14 +6616,14 @@
       <c r="J136" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="K136" s="4" t="n">
+      <c r="K136" s="13" t="n">
         <v>1038.5</v>
       </c>
-      <c r="L136" s="4"/>
+      <c r="L136" s="7"/>
       <c r="M136" s="4" t="n">
         <v>360</v>
       </c>
-      <c r="N136" s="6" t="n">
+      <c r="N136" s="8" t="n">
         <v>46568</v>
       </c>
       <c r="O136" s="4" t="n">
@@ -6399,7 +6634,7 @@
       <c r="D137" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E137" s="10" t="n">
+      <c r="E137" s="14" t="n">
         <v>0.05</v>
       </c>
       <c r="F137" s="4" t="s">
@@ -6417,14 +6652,14 @@
       <c r="J137" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K137" s="4" t="n">
+      <c r="K137" s="13" t="n">
         <v>567</v>
       </c>
-      <c r="L137" s="4"/>
+      <c r="L137" s="7"/>
       <c r="M137" s="4" t="n">
         <v>2240</v>
       </c>
-      <c r="N137" s="11" t="n">
+      <c r="N137" s="15" t="n">
         <v>46690</v>
       </c>
       <c r="O137" s="4" t="n">
@@ -6435,7 +6670,7 @@
       <c r="D138" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E138" s="10" t="n">
+      <c r="E138" s="14" t="n">
         <v>0.1</v>
       </c>
       <c r="F138" s="4" t="s">
@@ -6453,14 +6688,14 @@
       <c r="J138" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K138" s="4" t="n">
+      <c r="K138" s="13" t="n">
         <v>495</v>
       </c>
-      <c r="L138" s="4"/>
+      <c r="L138" s="7"/>
       <c r="M138" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="N138" s="6" t="n">
+      <c r="N138" s="8" t="n">
         <v>46326</v>
       </c>
       <c r="O138" s="4" t="n">
@@ -6471,7 +6706,7 @@
       <c r="D139" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E139" s="10" t="n">
+      <c r="E139" s="14" t="n">
         <v>0.5</v>
       </c>
       <c r="F139" s="4" t="s">
@@ -6489,14 +6724,14 @@
       <c r="J139" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K139" s="4" t="n">
+      <c r="K139" s="13" t="n">
         <v>450</v>
       </c>
-      <c r="L139" s="4"/>
+      <c r="L139" s="7"/>
       <c r="M139" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="N139" s="6" t="n">
+      <c r="N139" s="8" t="n">
         <v>45777</v>
       </c>
       <c r="O139" s="4" t="n">
@@ -6507,7 +6742,7 @@
       <c r="D140" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E140" s="10" t="n">
+      <c r="E140" s="14" t="n">
         <v>0.5</v>
       </c>
       <c r="F140" s="4" t="s">
@@ -6525,14 +6760,14 @@
       <c r="J140" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K140" s="4" t="n">
+      <c r="K140" s="13" t="n">
         <v>422.33</v>
       </c>
-      <c r="L140" s="4"/>
+      <c r="L140" s="7"/>
       <c r="M140" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="N140" s="6" t="n">
+      <c r="N140" s="8" t="n">
         <v>46203</v>
       </c>
       <c r="O140" s="4" t="n">
@@ -6543,7 +6778,7 @@
       <c r="D141" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E141" s="10" t="n">
+      <c r="E141" s="14" t="n">
         <v>0.05</v>
       </c>
       <c r="F141" s="4" t="s">
@@ -6561,14 +6796,14 @@
       <c r="J141" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K141" s="4" t="n">
+      <c r="K141" s="13" t="n">
         <v>534.85</v>
       </c>
-      <c r="L141" s="4"/>
+      <c r="L141" s="7"/>
       <c r="M141" s="4" t="n">
         <v>340</v>
       </c>
-      <c r="N141" s="6" t="n">
+      <c r="N141" s="8" t="n">
         <v>46630</v>
       </c>
       <c r="O141" s="4" t="n">
@@ -6579,7 +6814,7 @@
       <c r="D142" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E142" s="10" t="n">
+      <c r="E142" s="14" t="n">
         <v>0.043</v>
       </c>
       <c r="F142" s="4" t="s">
@@ -6597,14 +6832,14 @@
       <c r="J142" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K142" s="4" t="n">
+      <c r="K142" s="13" t="n">
         <v>1010</v>
       </c>
-      <c r="L142" s="4"/>
+      <c r="L142" s="7"/>
       <c r="M142" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="N142" s="6" t="n">
+      <c r="N142" s="8" t="n">
         <v>46418</v>
       </c>
       <c r="O142" s="4" t="n">
@@ -6615,7 +6850,7 @@
       <c r="D143" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E143" s="10" t="n">
+      <c r="E143" s="14" t="n">
         <v>0.1</v>
       </c>
       <c r="F143" s="4" t="s">
@@ -6633,14 +6868,14 @@
       <c r="J143" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K143" s="4" t="n">
+      <c r="K143" s="13" t="n">
         <v>550</v>
       </c>
-      <c r="L143" s="4"/>
+      <c r="L143" s="7"/>
       <c r="M143" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="N143" s="6" t="n">
+      <c r="N143" s="8" t="n">
         <v>45991</v>
       </c>
       <c r="O143" s="4" t="n">
@@ -6651,7 +6886,7 @@
       <c r="D144" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E144" s="10" t="n">
+      <c r="E144" s="14" t="n">
         <v>0.2</v>
       </c>
       <c r="F144" s="4" t="s">
@@ -6669,14 +6904,14 @@
       <c r="J144" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K144" s="4" t="n">
+      <c r="K144" s="13" t="n">
         <v>550</v>
       </c>
-      <c r="L144" s="4"/>
+      <c r="L144" s="7"/>
       <c r="M144" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N144" s="6" t="n">
+      <c r="N144" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O144" s="4" t="n">
@@ -6705,14 +6940,14 @@
       <c r="J145" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="K145" s="4" t="n">
+      <c r="K145" s="13" t="n">
         <v>365</v>
       </c>
-      <c r="L145" s="4"/>
+      <c r="L145" s="7"/>
       <c r="M145" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N145" s="6" t="n">
+      <c r="N145" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O145" s="4" t="n">
@@ -6741,14 +6976,14 @@
       <c r="J146" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K146" s="4" t="n">
+      <c r="K146" s="13" t="n">
         <v>416.56</v>
       </c>
-      <c r="L146" s="4"/>
+      <c r="L146" s="7"/>
       <c r="M146" s="4" t="n">
         <v>1075</v>
       </c>
-      <c r="N146" s="6" t="n">
+      <c r="N146" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O146" s="4" t="n">
@@ -6777,14 +7012,14 @@
       <c r="J147" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K147" s="4" t="n">
+      <c r="K147" s="13" t="n">
         <v>480</v>
       </c>
-      <c r="L147" s="4"/>
+      <c r="L147" s="7"/>
       <c r="M147" s="4" t="n">
         <v>290</v>
       </c>
-      <c r="N147" s="6" t="n">
+      <c r="N147" s="8" t="n">
         <v>45688</v>
       </c>
       <c r="O147" s="4" t="n">
@@ -6811,14 +7046,14 @@
       <c r="J148" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K148" s="4" t="n">
+      <c r="K148" s="13" t="n">
         <v>495</v>
       </c>
-      <c r="L148" s="4"/>
+      <c r="L148" s="7"/>
       <c r="M148" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="N148" s="6" t="n">
+      <c r="N148" s="8" t="n">
         <v>46265</v>
       </c>
       <c r="O148" s="4" t="n">
@@ -6845,14 +7080,14 @@
       <c r="J149" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K149" s="4" t="n">
+      <c r="K149" s="13" t="n">
         <v>495</v>
       </c>
-      <c r="L149" s="4"/>
+      <c r="L149" s="7"/>
       <c r="M149" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="N149" s="6" t="n">
+      <c r="N149" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O149" s="4" t="n">
@@ -6879,14 +7114,14 @@
       <c r="J150" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K150" s="4" t="n">
+      <c r="K150" s="13" t="n">
         <v>230</v>
       </c>
-      <c r="L150" s="4"/>
+      <c r="L150" s="7"/>
       <c r="M150" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="N150" s="6" t="n">
+      <c r="N150" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O150" s="4" t="n">
@@ -6915,14 +7150,14 @@
       <c r="J151" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K151" s="4" t="n">
+      <c r="K151" s="13" t="n">
         <v>1464</v>
       </c>
-      <c r="L151" s="4"/>
+      <c r="L151" s="7"/>
       <c r="M151" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="N151" s="6" t="n">
+      <c r="N151" s="8" t="n">
         <v>46142</v>
       </c>
       <c r="O151" s="4"/>
@@ -6947,14 +7182,14 @@
       <c r="J152" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K152" s="4" t="n">
+      <c r="K152" s="13" t="n">
         <v>537.5</v>
       </c>
-      <c r="L152" s="4"/>
+      <c r="L152" s="7"/>
       <c r="M152" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N152" s="6" t="n">
+      <c r="N152" s="8" t="n">
         <v>46537</v>
       </c>
       <c r="O152" s="4" t="n">
@@ -6981,14 +7216,14 @@
       <c r="J153" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="K153" s="4" t="n">
+      <c r="K153" s="13" t="n">
         <v>660</v>
       </c>
-      <c r="L153" s="4"/>
+      <c r="L153" s="7"/>
       <c r="M153" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N153" s="6" t="n">
+      <c r="N153" s="8" t="n">
         <v>46691</v>
       </c>
       <c r="O153" s="4" t="n">
@@ -7015,14 +7250,14 @@
       <c r="J154" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="K154" s="4" t="n">
+      <c r="K154" s="13" t="n">
         <v>520</v>
       </c>
-      <c r="L154" s="4"/>
+      <c r="L154" s="7"/>
       <c r="M154" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="N154" s="6" t="n">
+      <c r="N154" s="8" t="n">
         <v>46356</v>
       </c>
       <c r="O154" s="4" t="n">
@@ -7049,14 +7284,14 @@
       <c r="J155" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="K155" s="4" t="n">
+      <c r="K155" s="13" t="n">
         <v>495</v>
       </c>
-      <c r="L155" s="4"/>
+      <c r="L155" s="7"/>
       <c r="M155" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="N155" s="6" t="n">
+      <c r="N155" s="8" t="n">
         <v>46418</v>
       </c>
       <c r="O155" s="4" t="n">
@@ -7083,14 +7318,14 @@
       <c r="J156" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="K156" s="4" t="n">
+      <c r="K156" s="13" t="n">
         <v>385</v>
       </c>
-      <c r="L156" s="4"/>
+      <c r="L156" s="7"/>
       <c r="M156" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N156" s="6" t="n">
+      <c r="N156" s="8" t="n">
         <v>45838</v>
       </c>
       <c r="O156" s="4" t="n">
@@ -7117,14 +7352,14 @@
       <c r="J157" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="K157" s="4" t="n">
+      <c r="K157" s="13" t="n">
         <v>391</v>
       </c>
-      <c r="L157" s="4"/>
+      <c r="L157" s="7"/>
       <c r="M157" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="N157" s="6" t="n">
+      <c r="N157" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O157" s="4" t="n">
@@ -7151,14 +7386,14 @@
       <c r="J158" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="K158" s="4" t="n">
+      <c r="K158" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="L158" s="4"/>
+      <c r="L158" s="7"/>
       <c r="M158" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="N158" s="6" t="n">
+      <c r="N158" s="8" t="n">
         <v>46234</v>
       </c>
       <c r="O158" s="4" t="n">
@@ -7185,14 +7420,14 @@
       <c r="J159" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="K159" s="4" t="n">
+      <c r="K159" s="13" t="n">
         <v>326</v>
       </c>
-      <c r="L159" s="4"/>
+      <c r="L159" s="7"/>
       <c r="M159" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="N159" s="6" t="n">
+      <c r="N159" s="8" t="n">
         <v>46418</v>
       </c>
       <c r="O159" s="4" t="n">
@@ -7221,14 +7456,14 @@
       <c r="J160" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K160" s="4" t="n">
+      <c r="K160" s="13" t="n">
         <v>139</v>
       </c>
-      <c r="L160" s="4"/>
+      <c r="L160" s="7"/>
       <c r="M160" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N160" s="6" t="n">
+      <c r="N160" s="8" t="n">
         <v>46264</v>
       </c>
       <c r="O160" s="4" t="n">
@@ -7253,14 +7488,14 @@
       <c r="J161" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="K161" s="4" t="n">
+      <c r="K161" s="13" t="n">
         <v>275</v>
       </c>
-      <c r="L161" s="4"/>
+      <c r="L161" s="7"/>
       <c r="M161" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="N161" s="6" t="n">
+      <c r="N161" s="8" t="n">
         <v>45504</v>
       </c>
       <c r="O161" s="4" t="n">
@@ -7285,14 +7520,14 @@
       <c r="J162" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K162" s="4" t="n">
+      <c r="K162" s="13" t="n">
         <v>120</v>
       </c>
-      <c r="L162" s="4"/>
+      <c r="L162" s="7"/>
       <c r="M162" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N162" s="6" t="n">
+      <c r="N162" s="8" t="n">
         <v>45747</v>
       </c>
       <c r="O162" s="4" t="n">
@@ -7317,14 +7552,14 @@
       <c r="J163" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K163" s="4" t="n">
+      <c r="K163" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="L163" s="4"/>
+      <c r="L163" s="7"/>
       <c r="M163" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="N163" s="6" t="n">
+      <c r="N163" s="8" t="n">
         <v>46142</v>
       </c>
       <c r="O163" s="4" t="n">
@@ -7349,14 +7584,14 @@
       <c r="J164" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K164" s="4" t="n">
+      <c r="K164" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="L164" s="4"/>
+      <c r="L164" s="7"/>
       <c r="M164" s="4" t="n">
         <v>170</v>
       </c>
-      <c r="N164" s="6" t="n">
+      <c r="N164" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O164" s="4" t="n">
@@ -7385,14 +7620,14 @@
       <c r="J165" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K165" s="4" t="n">
+      <c r="K165" s="13" t="n">
         <v>8500</v>
       </c>
-      <c r="L165" s="4"/>
+      <c r="L165" s="7"/>
       <c r="M165" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="N165" s="6" t="n">
+      <c r="N165" s="8" t="n">
         <v>46477</v>
       </c>
       <c r="O165" s="4" t="n">
@@ -7421,14 +7656,14 @@
       <c r="J166" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K166" s="12" t="n">
+      <c r="K166" s="13" t="n">
         <v>18350</v>
       </c>
-      <c r="L166" s="12"/>
+      <c r="L166" s="7"/>
       <c r="M166" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="N166" s="6" t="n">
+      <c r="N166" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O166" s="4" t="n">
@@ -7457,11 +7692,11 @@
       <c r="J167" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K167" s="12" t="n">
+      <c r="K167" s="13" t="n">
         <v>7260</v>
       </c>
-      <c r="L167" s="12"/>
-      <c r="M167" s="13" t="n">
+      <c r="L167" s="7"/>
+      <c r="M167" s="16" t="n">
         <v>936</v>
       </c>
       <c r="O167" s="4" t="n">
@@ -7486,14 +7721,14 @@
       <c r="J168" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K168" s="4" t="n">
+      <c r="K168" s="13" t="n">
         <v>600</v>
       </c>
-      <c r="L168" s="4"/>
+      <c r="L168" s="7"/>
       <c r="M168" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="N168" s="6" t="n">
+      <c r="N168" s="8" t="n">
         <v>46356</v>
       </c>
       <c r="O168" s="4" t="n">
@@ -7522,14 +7757,14 @@
       <c r="J169" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K169" s="12" t="n">
+      <c r="K169" s="13" t="n">
         <v>5234</v>
       </c>
-      <c r="L169" s="12"/>
+      <c r="L169" s="7"/>
       <c r="M169" s="4" t="n">
         <v>2860</v>
       </c>
-      <c r="N169" s="6" t="n">
+      <c r="N169" s="8" t="n">
         <v>46507</v>
       </c>
       <c r="O169" s="4" t="n">
@@ -7558,14 +7793,14 @@
       <c r="J170" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K170" s="12" t="n">
+      <c r="K170" s="13" t="n">
         <v>550</v>
       </c>
-      <c r="L170" s="12"/>
+      <c r="L170" s="7"/>
       <c r="M170" s="4" t="n">
         <v>1440</v>
       </c>
-      <c r="N170" s="6" t="n">
+      <c r="N170" s="8" t="n">
         <v>46142</v>
       </c>
       <c r="O170" s="4" t="n">
@@ -7594,14 +7829,14 @@
       <c r="J171" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K171" s="12" t="n">
+      <c r="K171" s="13" t="n">
         <v>700</v>
       </c>
-      <c r="L171" s="12"/>
+      <c r="L171" s="7"/>
       <c r="M171" s="4" t="n">
         <v>900</v>
       </c>
-      <c r="N171" s="6" t="n">
+      <c r="N171" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O171" s="4" t="n">
@@ -7630,12 +7865,12 @@
       <c r="J172" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
+      <c r="K172" s="13"/>
+      <c r="L172" s="7"/>
       <c r="M172" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="N172" s="6" t="n">
+      <c r="N172" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O172" s="4" t="n">
@@ -7664,14 +7899,14 @@
       <c r="J173" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K173" s="12" t="n">
+      <c r="K173" s="13" t="n">
         <v>540</v>
       </c>
-      <c r="L173" s="12"/>
+      <c r="L173" s="7"/>
       <c r="M173" s="4" t="n">
         <v>1500</v>
       </c>
-      <c r="N173" s="6" t="n">
+      <c r="N173" s="8" t="n">
         <v>45808</v>
       </c>
       <c r="O173" s="4" t="n">
@@ -7700,14 +7935,14 @@
       <c r="J174" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K174" s="12" t="n">
+      <c r="K174" s="13" t="n">
         <v>720</v>
       </c>
-      <c r="L174" s="12"/>
+      <c r="L174" s="7"/>
       <c r="M174" s="4" t="n">
         <v>720</v>
       </c>
-      <c r="N174" s="6" t="n">
+      <c r="N174" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O174" s="4" t="n">
@@ -7736,14 +7971,14 @@
       <c r="J175" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K175" s="12" t="n">
+      <c r="K175" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="L175" s="12"/>
+      <c r="L175" s="7"/>
       <c r="M175" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="N175" s="6" t="n">
+      <c r="N175" s="8" t="n">
         <v>45991</v>
       </c>
       <c r="O175" s="4" t="n">
@@ -7772,14 +8007,14 @@
       <c r="J176" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K176" s="12" t="n">
+      <c r="K176" s="13" t="n">
         <v>1400</v>
       </c>
-      <c r="L176" s="12"/>
+      <c r="L176" s="7"/>
       <c r="M176" s="4" t="n">
         <v>165</v>
       </c>
-      <c r="N176" s="6" t="n">
+      <c r="N176" s="8" t="n">
         <v>46326</v>
       </c>
       <c r="O176" s="4" t="n">
@@ -7804,10 +8039,10 @@
       <c r="J177" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="K177" s="12" t="n">
+      <c r="K177" s="13" t="n">
         <v>40000</v>
       </c>
-      <c r="L177" s="12"/>
+      <c r="L177" s="7"/>
       <c r="M177" s="4" t="n">
         <v>62</v>
       </c>
@@ -7833,10 +8068,10 @@
       <c r="J178" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="K178" s="12" t="n">
+      <c r="K178" s="13" t="n">
         <v>55000</v>
       </c>
-      <c r="L178" s="12"/>
+      <c r="L178" s="7"/>
       <c r="M178" s="4" t="n">
         <v>125</v>
       </c>
@@ -7865,10 +8100,10 @@
       <c r="J179" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="K179" s="12" t="n">
+      <c r="K179" s="13" t="n">
         <v>45000</v>
       </c>
-      <c r="L179" s="12"/>
+      <c r="L179" s="7"/>
       <c r="M179" s="4" t="n">
         <v>90</v>
       </c>
@@ -7897,14 +8132,14 @@
       <c r="J180" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K180" s="12" t="n">
+      <c r="K180" s="13" t="n">
         <v>854.1</v>
       </c>
-      <c r="L180" s="12"/>
+      <c r="L180" s="7"/>
       <c r="M180" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N180" s="6" t="n">
+      <c r="N180" s="8" t="n">
         <v>46234</v>
       </c>
       <c r="O180" s="4" t="n">
@@ -7931,14 +8166,14 @@
       <c r="J181" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K181" s="12" t="n">
+      <c r="K181" s="13" t="n">
         <v>8700</v>
       </c>
-      <c r="L181" s="12"/>
+      <c r="L181" s="7"/>
       <c r="M181" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="N181" s="6" t="n">
+      <c r="N181" s="8" t="n">
         <v>46173</v>
       </c>
       <c r="O181" s="4" t="n">
@@ -7965,14 +8200,14 @@
       <c r="J182" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K182" s="12" t="n">
+      <c r="K182" s="13" t="n">
         <v>600</v>
       </c>
-      <c r="L182" s="12"/>
+      <c r="L182" s="7"/>
       <c r="M182" s="4" t="n">
         <v>850</v>
       </c>
-      <c r="N182" s="6" t="n">
+      <c r="N182" s="8" t="n">
         <v>46265</v>
       </c>
       <c r="O182" s="4" t="n">
@@ -7999,14 +8234,14 @@
       <c r="J183" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K183" s="12" t="n">
+      <c r="K183" s="13" t="n">
         <v>340</v>
       </c>
-      <c r="L183" s="12"/>
+      <c r="L183" s="7"/>
       <c r="M183" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N183" s="6" t="n">
+      <c r="N183" s="8" t="n">
         <v>45930</v>
       </c>
       <c r="O183" s="4" t="n">
@@ -8033,14 +8268,14 @@
       <c r="J184" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K184" s="12" t="n">
+      <c r="K184" s="13" t="n">
         <v>3600</v>
       </c>
-      <c r="L184" s="12"/>
+      <c r="L184" s="7"/>
       <c r="M184" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="N184" s="6" t="n">
+      <c r="N184" s="8" t="n">
         <v>46783</v>
       </c>
       <c r="O184" s="4" t="n">
@@ -8067,14 +8302,14 @@
       <c r="J185" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K185" s="12" t="n">
+      <c r="K185" s="13" t="n">
         <v>650</v>
       </c>
-      <c r="L185" s="12"/>
+      <c r="L185" s="7"/>
       <c r="M185" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="N185" s="6" t="n">
+      <c r="N185" s="8" t="n">
         <v>46446</v>
       </c>
       <c r="O185" s="4" t="n">
@@ -8099,14 +8334,14 @@
       <c r="J186" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K186" s="12" t="n">
+      <c r="K186" s="13" t="n">
         <v>3700</v>
       </c>
-      <c r="L186" s="12"/>
+      <c r="L186" s="7"/>
       <c r="M186" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N186" s="6" t="n">
+      <c r="N186" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O186" s="4" t="n">
@@ -8133,14 +8368,14 @@
       <c r="J187" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K187" s="12" t="n">
+      <c r="K187" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="L187" s="12"/>
+      <c r="L187" s="7"/>
       <c r="M187" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N187" s="6" t="n">
+      <c r="N187" s="8" t="n">
         <v>46356</v>
       </c>
       <c r="O187" s="4" t="n">
@@ -8167,12 +8402,12 @@
       <c r="J188" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K188" s="12" t="n">
+      <c r="K188" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="L188" s="12"/>
+      <c r="L188" s="7"/>
       <c r="M188" s="4"/>
-      <c r="N188" s="6" t="n">
+      <c r="N188" s="8" t="n">
         <v>46265</v>
       </c>
       <c r="O188" s="4" t="n">
@@ -8201,14 +8436,14 @@
       <c r="J189" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K189" s="12" t="n">
+      <c r="K189" s="13" t="n">
         <v>500</v>
       </c>
-      <c r="L189" s="12"/>
+      <c r="L189" s="7"/>
       <c r="M189" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="N189" s="6" t="n">
+      <c r="N189" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O189" s="4" t="n">
@@ -8237,14 +8472,14 @@
       <c r="J190" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K190" s="12" t="n">
+      <c r="K190" s="13" t="n">
         <v>1900</v>
       </c>
-      <c r="L190" s="12"/>
+      <c r="L190" s="7"/>
       <c r="M190" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="N190" s="6" t="n">
+      <c r="N190" s="8" t="n">
         <v>46387</v>
       </c>
       <c r="O190" s="4" t="n">
@@ -8269,14 +8504,14 @@
       <c r="J191" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="K191" s="12" t="n">
+      <c r="K191" s="13" t="n">
         <v>3146</v>
       </c>
-      <c r="L191" s="12"/>
+      <c r="L191" s="7"/>
       <c r="M191" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="N191" s="6" t="n">
+      <c r="N191" s="8" t="n">
         <v>46142</v>
       </c>
       <c r="O191" s="4" t="n">
@@ -8287,7 +8522,7 @@
       <c r="D192" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E192" s="10" t="n">
+      <c r="E192" s="14" t="n">
         <v>0.02</v>
       </c>
       <c r="F192" s="4"/>
@@ -8303,14 +8538,14 @@
       <c r="J192" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K192" s="12" t="n">
+      <c r="K192" s="13" t="n">
         <v>850</v>
       </c>
-      <c r="L192" s="12"/>
+      <c r="L192" s="7"/>
       <c r="M192" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="N192" s="6" t="n">
+      <c r="N192" s="8" t="n">
         <v>46295</v>
       </c>
       <c r="O192" s="4" t="n">
@@ -8337,14 +8572,14 @@
       <c r="J193" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K193" s="12" t="n">
+      <c r="K193" s="13" t="n">
         <v>1500</v>
       </c>
-      <c r="L193" s="12"/>
+      <c r="L193" s="7"/>
       <c r="M193" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N193" s="6" t="n">
+      <c r="N193" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O193" s="4" t="n">
@@ -8371,14 +8606,14 @@
       <c r="J194" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K194" s="12" t="n">
+      <c r="K194" s="13" t="n">
         <v>1150</v>
       </c>
-      <c r="L194" s="12"/>
+      <c r="L194" s="7"/>
       <c r="M194" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="N194" s="6" t="n">
+      <c r="N194" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O194" s="4" t="n">
@@ -8405,14 +8640,14 @@
       <c r="J195" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K195" s="12" t="n">
+      <c r="K195" s="13" t="n">
         <v>1110</v>
       </c>
-      <c r="L195" s="12"/>
+      <c r="L195" s="7"/>
       <c r="M195" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N195" s="6" t="n">
+      <c r="N195" s="8" t="n">
         <v>45748</v>
       </c>
       <c r="O195" s="4" t="n">
@@ -8439,14 +8674,14 @@
       <c r="J196" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K196" s="12" t="n">
+      <c r="K196" s="13" t="n">
         <v>1200</v>
       </c>
-      <c r="L196" s="12"/>
+      <c r="L196" s="7"/>
       <c r="M196" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N196" s="6" t="n">
+      <c r="N196" s="8" t="n">
         <v>45961</v>
       </c>
       <c r="O196" s="4" t="n">
@@ -8471,14 +8706,14 @@
       <c r="J197" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K197" s="12" t="n">
+      <c r="K197" s="13" t="n">
         <v>4500</v>
       </c>
-      <c r="L197" s="12"/>
+      <c r="L197" s="7"/>
       <c r="M197" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N197" s="6" t="n">
+      <c r="N197" s="8" t="n">
         <v>46234</v>
       </c>
       <c r="O197" s="4" t="n">
@@ -8507,14 +8742,14 @@
       <c r="J198" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K198" s="12" t="n">
+      <c r="K198" s="13" t="n">
         <v>845</v>
       </c>
-      <c r="L198" s="12"/>
+      <c r="L198" s="7"/>
       <c r="M198" s="4" t="n">
         <v>495</v>
       </c>
-      <c r="N198" s="6" t="n">
+      <c r="N198" s="8" t="n">
         <v>46387</v>
       </c>
       <c r="O198" s="4" t="n">
@@ -8539,14 +8774,14 @@
       <c r="J199" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K199" s="12" t="n">
+      <c r="K199" s="13" t="n">
         <v>1592.5</v>
       </c>
-      <c r="L199" s="12"/>
+      <c r="L199" s="7"/>
       <c r="M199" s="4" t="n">
         <v>375</v>
       </c>
-      <c r="N199" s="6" t="n">
+      <c r="N199" s="8" t="n">
         <v>45930</v>
       </c>
       <c r="O199" s="4" t="n">
@@ -8571,14 +8806,14 @@
       <c r="J200" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K200" s="12" t="n">
+      <c r="K200" s="13" t="n">
         <v>680</v>
       </c>
-      <c r="L200" s="12"/>
+      <c r="L200" s="7"/>
       <c r="M200" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="N200" s="6" t="n">
+      <c r="N200" s="8" t="n">
         <v>46326</v>
       </c>
       <c r="O200" s="4" t="n">
@@ -8603,14 +8838,14 @@
       <c r="J201" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K201" s="12" t="n">
+      <c r="K201" s="13" t="n">
         <v>120</v>
       </c>
-      <c r="L201" s="12"/>
+      <c r="L201" s="7"/>
       <c r="M201" s="4" t="n">
         <v>985</v>
       </c>
-      <c r="N201" s="6" t="n">
+      <c r="N201" s="8" t="n">
         <v>45747</v>
       </c>
       <c r="O201" s="4" t="n">
@@ -8637,14 +8872,14 @@
       <c r="J202" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K202" s="12" t="n">
+      <c r="K202" s="13" t="n">
         <v>750</v>
       </c>
-      <c r="L202" s="12"/>
+      <c r="L202" s="7"/>
       <c r="M202" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="N202" s="6" t="n">
+      <c r="N202" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O202" s="4" t="n">
@@ -8671,14 +8906,14 @@
       <c r="J203" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K203" s="12" t="n">
+      <c r="K203" s="13" t="n">
         <v>7000</v>
       </c>
-      <c r="L203" s="12"/>
+      <c r="L203" s="7"/>
       <c r="M203" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N203" s="6" t="n">
+      <c r="N203" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O203" s="4" t="n">
@@ -8703,14 +8938,14 @@
       <c r="J204" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K204" s="12" t="n">
+      <c r="K204" s="13" t="n">
         <v>2400</v>
       </c>
-      <c r="L204" s="12"/>
+      <c r="L204" s="7"/>
       <c r="M204" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="N204" s="6" t="n">
+      <c r="N204" s="8" t="n">
         <v>45777</v>
       </c>
       <c r="O204" s="4" t="n">
@@ -8737,14 +8972,14 @@
       <c r="J205" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K205" s="12" t="n">
+      <c r="K205" s="13" t="n">
         <v>395</v>
       </c>
-      <c r="L205" s="12"/>
+      <c r="L205" s="7"/>
       <c r="M205" s="4" t="n">
         <v>570</v>
       </c>
-      <c r="N205" s="6" t="n">
+      <c r="N205" s="8" t="n">
         <v>46326</v>
       </c>
       <c r="O205" s="4" t="n">
@@ -8769,14 +9004,14 @@
       <c r="J206" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K206" s="12" t="n">
+      <c r="K206" s="13" t="n">
         <v>1080</v>
       </c>
-      <c r="L206" s="12"/>
+      <c r="L206" s="7"/>
       <c r="M206" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="N206" s="6" t="n">
+      <c r="N206" s="8" t="n">
         <v>45688</v>
       </c>
       <c r="O206" s="4" t="n">
@@ -8803,14 +9038,14 @@
       <c r="J207" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K207" s="12" t="n">
+      <c r="K207" s="13" t="n">
         <v>700</v>
       </c>
-      <c r="L207" s="12"/>
+      <c r="L207" s="7"/>
       <c r="M207" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="N207" s="6" t="n">
+      <c r="N207" s="8" t="n">
         <v>46173</v>
       </c>
       <c r="O207" s="4" t="n">
@@ -8835,14 +9070,14 @@
       <c r="J208" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K208" s="12" t="n">
+      <c r="K208" s="13" t="n">
         <v>850</v>
       </c>
-      <c r="L208" s="12"/>
+      <c r="L208" s="7"/>
       <c r="M208" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="N208" s="6" t="n">
+      <c r="N208" s="8" t="n">
         <v>45716</v>
       </c>
       <c r="O208" s="4" t="n">
@@ -8869,14 +9104,14 @@
       <c r="J209" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="K209" s="12" t="n">
+      <c r="K209" s="13" t="n">
         <v>3200</v>
       </c>
-      <c r="L209" s="12"/>
+      <c r="L209" s="7"/>
       <c r="M209" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="N209" s="6" t="n">
+      <c r="N209" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O209" s="4" t="n">
@@ -8903,14 +9138,14 @@
       <c r="J210" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K210" s="12" t="n">
+      <c r="K210" s="13" t="n">
         <v>480</v>
       </c>
-      <c r="L210" s="12"/>
+      <c r="L210" s="7"/>
       <c r="M210" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N210" s="6" t="n">
+      <c r="N210" s="8" t="n">
         <v>46203</v>
       </c>
       <c r="O210" s="4" t="n">
@@ -8935,14 +9170,14 @@
       <c r="J211" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K211" s="12" t="n">
+      <c r="K211" s="13" t="n">
         <v>7246</v>
       </c>
-      <c r="L211" s="12"/>
+      <c r="L211" s="7"/>
       <c r="M211" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N211" s="6" t="n">
+      <c r="N211" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O211" s="4" t="n">
@@ -8967,14 +9202,14 @@
       <c r="J212" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K212" s="12" t="n">
+      <c r="K212" s="13" t="n">
         <v>1600</v>
       </c>
-      <c r="L212" s="12"/>
+      <c r="L212" s="7"/>
       <c r="M212" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="N212" s="6" t="n">
+      <c r="N212" s="8" t="n">
         <v>46386</v>
       </c>
       <c r="O212" s="4" t="n">
@@ -8999,14 +9234,14 @@
       <c r="J213" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K213" s="12" t="n">
+      <c r="K213" s="13" t="n">
         <v>120</v>
       </c>
-      <c r="L213" s="12"/>
+      <c r="L213" s="7"/>
       <c r="M213" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="N213" s="6" t="n">
+      <c r="N213" s="8" t="n">
         <v>45900</v>
       </c>
       <c r="O213" s="4" t="n">
@@ -9031,14 +9266,14 @@
       <c r="J214" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K214" s="12" t="n">
+      <c r="K214" s="13" t="n">
         <v>5350</v>
       </c>
-      <c r="L214" s="12"/>
+      <c r="L214" s="7"/>
       <c r="M214" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N214" s="6" t="n">
+      <c r="N214" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O214" s="4" t="n">
@@ -9063,14 +9298,14 @@
       <c r="J215" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K215" s="12" t="n">
+      <c r="K215" s="13" t="n">
         <v>280</v>
       </c>
-      <c r="L215" s="12"/>
+      <c r="L215" s="7"/>
       <c r="M215" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="N215" s="6" t="n">
+      <c r="N215" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O215" s="4" t="n">
@@ -9095,14 +9330,14 @@
       <c r="J216" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K216" s="12" t="n">
+      <c r="K216" s="13" t="n">
         <v>18686</v>
       </c>
-      <c r="L216" s="12"/>
+      <c r="L216" s="7"/>
       <c r="M216" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="N216" s="6" t="n">
+      <c r="N216" s="8" t="n">
         <v>45777</v>
       </c>
       <c r="O216" s="4" t="n">
@@ -9129,14 +9364,14 @@
       <c r="J217" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K217" s="12" t="n">
+      <c r="K217" s="13" t="n">
         <v>750</v>
       </c>
-      <c r="L217" s="12"/>
+      <c r="L217" s="7"/>
       <c r="M217" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="N217" s="6" t="n">
+      <c r="N217" s="8" t="n">
         <v>46387</v>
       </c>
       <c r="O217" s="4" t="n">
@@ -9161,14 +9396,14 @@
       <c r="J218" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K218" s="12" t="n">
+      <c r="K218" s="13" t="n">
         <v>8249</v>
       </c>
-      <c r="L218" s="12"/>
+      <c r="L218" s="7"/>
       <c r="M218" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="N218" s="6" t="n">
+      <c r="N218" s="8" t="n">
         <v>46234</v>
       </c>
       <c r="O218" s="4" t="n">
@@ -9193,14 +9428,14 @@
       <c r="J219" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K219" s="12" t="n">
+      <c r="K219" s="13" t="n">
         <v>10121</v>
       </c>
-      <c r="L219" s="12"/>
+      <c r="L219" s="7"/>
       <c r="M219" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="N219" s="6" t="n">
+      <c r="N219" s="8" t="n">
         <v>46081</v>
       </c>
       <c r="O219" s="4" t="n">
@@ -9227,14 +9462,14 @@
       <c r="J220" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="K220" s="12" t="n">
+      <c r="K220" s="13" t="n">
         <v>10930</v>
       </c>
-      <c r="L220" s="12"/>
+      <c r="L220" s="7"/>
       <c r="M220" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="N220" s="6" t="n">
+      <c r="N220" s="8" t="n">
         <v>46387</v>
       </c>
       <c r="O220" s="4" t="n">
@@ -9259,14 +9494,14 @@
       <c r="J221" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K221" s="12" t="n">
+      <c r="K221" s="13" t="n">
         <v>85</v>
       </c>
-      <c r="L221" s="12"/>
+      <c r="L221" s="7"/>
       <c r="M221" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="N221" s="6" t="n">
+      <c r="N221" s="8" t="n">
         <v>45808</v>
       </c>
       <c r="O221" s="4" t="n">
@@ -9293,14 +9528,14 @@
       <c r="J222" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K222" s="12" t="n">
+      <c r="K222" s="13" t="n">
         <v>1970</v>
       </c>
-      <c r="L222" s="12"/>
+      <c r="L222" s="7"/>
       <c r="M222" s="4" t="n">
         <v>370</v>
       </c>
-      <c r="N222" s="6" t="n">
+      <c r="N222" s="8" t="n">
         <v>46660</v>
       </c>
       <c r="O222" s="4" t="n">
@@ -9325,10 +9560,10 @@
       <c r="J223" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K223" s="4" t="n">
+      <c r="K223" s="13" t="n">
         <v>4900</v>
       </c>
-      <c r="L223" s="4"/>
+      <c r="L223" s="7"/>
       <c r="M223" s="4" t="n">
         <v>226</v>
       </c>
@@ -9359,14 +9594,14 @@
       <c r="J224" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K224" s="12" t="n">
+      <c r="K224" s="13" t="n">
         <v>11765</v>
       </c>
-      <c r="L224" s="12"/>
+      <c r="L224" s="7"/>
       <c r="M224" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="N224" s="6" t="n">
+      <c r="N224" s="8" t="n">
         <v>45747</v>
       </c>
       <c r="O224" s="4" t="n">
@@ -9393,14 +9628,14 @@
       <c r="J225" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K225" s="12" t="n">
+      <c r="K225" s="13" t="n">
         <v>11765</v>
       </c>
-      <c r="L225" s="12"/>
+      <c r="L225" s="7"/>
       <c r="M225" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="N225" s="6" t="n">
+      <c r="N225" s="8" t="n">
         <v>46112</v>
       </c>
       <c r="O225" s="4" t="n">
@@ -9427,14 +9662,14 @@
       <c r="J226" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K226" s="12" t="n">
+      <c r="K226" s="13" t="n">
         <v>11759</v>
       </c>
-      <c r="L226" s="12"/>
+      <c r="L226" s="7"/>
       <c r="M226" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="N226" s="6" t="n">
+      <c r="N226" s="8" t="n">
         <v>46387</v>
       </c>
       <c r="O226" s="4" t="n">
@@ -9459,18 +9694,866 @@
       <c r="J227" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K227" s="12" t="n">
+      <c r="K227" s="13" t="n">
         <v>3700</v>
       </c>
-      <c r="L227" s="12"/>
+      <c r="L227" s="7"/>
       <c r="M227" s="4"/>
-      <c r="N227" s="6" t="n">
+      <c r="N227" s="8" t="n">
         <v>46022</v>
       </c>
       <c r="O227" s="4" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D228" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K228" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="L228" s="7"/>
+      <c r="M228" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N228" s="8" t="n">
+        <v>46873</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D229" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K229" s="6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L229" s="7"/>
+      <c r="M229" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D230" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K230" s="6" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L230" s="7"/>
+      <c r="M230" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N230" s="8" t="n">
+        <v>46568</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D231" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K231" s="6" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L231" s="7"/>
+      <c r="M231" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N231" s="8" t="n">
+        <v>46568</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D232" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K232" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="L232" s="7"/>
+      <c r="M232" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="N232" s="8" t="n">
+        <v>46904</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D233" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K233" s="6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L233" s="7"/>
+      <c r="M233" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N233" s="8" t="n">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D234" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K234" s="6" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L234" s="7"/>
+      <c r="M234" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N234" s="8" t="n">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D235" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K235" s="6" t="n">
+        <v>1395</v>
+      </c>
+      <c r="L235" s="7"/>
+      <c r="M235" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="N235" s="8" t="n">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D236" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K236" s="6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L236" s="7"/>
+      <c r="M236" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="N236" s="8" t="n">
+        <v>46811</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D237" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K237" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="L237" s="7"/>
+      <c r="M237" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N237" s="8" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D238" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K238" s="6" t="n">
+        <v>350</v>
+      </c>
+      <c r="L238" s="7"/>
+      <c r="M238" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N238" s="8" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D239" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K239" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="L239" s="7"/>
+      <c r="M239" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="N239" s="8" t="n">
+        <v>46629</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D240" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K240" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="L240" s="7"/>
+      <c r="M240" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="N240" s="8" t="n">
+        <v>46904</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D241" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K241" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="L241" s="7"/>
+      <c r="M241" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="N241" s="8" t="n">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D242" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K242" s="6" t="n">
+        <v>475</v>
+      </c>
+      <c r="L242" s="7"/>
+      <c r="M242" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D243" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K243" s="6" t="n">
+        <v>666.6</v>
+      </c>
+      <c r="L243" s="7"/>
+      <c r="M243" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="N243" s="8" t="n">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D244" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K244" s="6" t="n">
+        <v>840</v>
+      </c>
+      <c r="L244" s="7"/>
+      <c r="M244" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="N244" s="8" t="n">
+        <v>47330</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D245" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K245" s="6" t="n">
+        <v>860</v>
+      </c>
+      <c r="L245" s="7"/>
+      <c r="M245" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="N245" s="8" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D246" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K246" s="6" t="n">
+        <v>890</v>
+      </c>
+      <c r="L246" s="7"/>
+      <c r="M246" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="N246" s="8" t="n">
+        <v>46907</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D247" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K247" s="6" t="n">
+        <v>880</v>
+      </c>
+      <c r="L247" s="7"/>
+      <c r="M247" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="N247" s="8" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D248" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K248" s="6" t="n">
+        <v>405</v>
+      </c>
+      <c r="L248" s="7"/>
+      <c r="M248" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="N248" s="8" t="n">
+        <v>47026</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D249" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K249" s="6" t="n">
+        <v>190</v>
+      </c>
+      <c r="L249" s="7"/>
+      <c r="M249" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="N249" s="8" t="n">
+        <v>46295</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D250" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K250" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="L250" s="7"/>
+      <c r="M250" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="N250" s="8" t="n">
+        <v>46598</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D251" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K251" s="6" t="n">
+        <v>210</v>
+      </c>
+      <c r="L251" s="7"/>
+      <c r="M251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="N251" s="8" t="n">
+        <v>47208</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D252" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K252" s="6" t="n">
+        <v>210</v>
+      </c>
+      <c r="L252" s="7"/>
+      <c r="M252" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="N252" s="8" t="n">
+        <v>47269</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D253" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K253" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L253" s="7"/>
+      <c r="M253" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N253" s="18" t="n">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D254" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K254" s="6" t="n">
+        <v>566.6</v>
+      </c>
+      <c r="L254" s="7"/>
+      <c r="M254" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="N254" s="8" t="n">
+        <v>47299</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D255" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K255" s="6" t="n">
+        <v>483.3</v>
+      </c>
+      <c r="L255" s="7"/>
+      <c r="M255" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="N255" s="8" t="n">
+        <v>47330</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D256" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K256" s="6" t="n">
+        <v>176</v>
+      </c>
+      <c r="L256" s="7"/>
+      <c r="M256" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="N256" s="8" t="n">
+        <v>46538</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D257" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K257" s="6" t="n">
+        <v>3700</v>
+      </c>
+      <c r="L257" s="7"/>
+      <c r="M257" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="N257" s="8" t="n">
+        <v>46538</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D258" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K258" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L258" s="7"/>
+      <c r="M258" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="N258" s="8" t="n">
+        <v>47299</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D259" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K259" s="6" t="n">
+        <v>230</v>
+      </c>
+      <c r="L259" s="7"/>
+      <c r="M259" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="N259" s="8" t="n">
+        <v>46964</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D260" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K260" s="6" t="n">
+        <v>580</v>
+      </c>
+      <c r="L260" s="7"/>
+      <c r="M260" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="N260" s="8" t="n">
+        <v>46995</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D261" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K261" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="L261" s="7"/>
+      <c r="M261" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="N261" s="8" t="n">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D262" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K262" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="L262" s="7"/>
+      <c r="M262" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="N262" s="8" t="n">
+        <v>46477</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D263" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K263" s="6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L263" s="7"/>
+      <c r="M263" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N263" s="8" t="n">
+        <v>46873</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D264" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K264" s="6" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L264" s="7"/>
+      <c r="M264" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N264" s="8" t="n">
+        <v>46477</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D265" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K265" s="6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L265" s="7"/>
+      <c r="M265" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N265" s="8" t="n">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D266" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K266" s="6" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L266" s="7"/>
+      <c r="M266" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N266" s="8" t="n">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D267" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K267" s="6" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L267" s="7"/>
+      <c r="M267" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N267" s="8" t="n">
+        <v>46477</v>
+      </c>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/drugs new.xlsx
+++ b/drugs new.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="488">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1106,6 +1106,9 @@
   </si>
   <si>
     <t xml:space="preserve">HALOTHANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALTHANE</t>
   </si>
   <si>
     <t xml:space="preserve">ANAESTHETIC</t>
@@ -1668,8 +1671,8 @@
   </sheetPr>
   <dimension ref="A1:Q271"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C242" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F269" activeCellId="0" sqref="F269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8916,8 +8919,11 @@
       <c r="D177" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="F177" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="G177" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>300</v>
@@ -8947,13 +8953,13 @@
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D178" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G178" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>300</v>
@@ -8986,13 +8992,13 @@
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D179" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>300</v>
@@ -9025,10 +9031,10 @@
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D180" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>237</v>
@@ -9190,19 +9196,19 @@
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D184" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>342</v>
@@ -9244,7 +9250,7 @@
         <v>44</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>342</v>
@@ -9313,19 +9319,19 @@
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D187" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="G187" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>342</v>
@@ -9355,16 +9361,16 @@
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>342</v>
@@ -9397,16 +9403,16 @@
         <v>180</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>182</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>342</v>
@@ -9436,19 +9442,19 @@
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>271</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>342</v>
@@ -9478,16 +9484,16 @@
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>342</v>
@@ -9517,19 +9523,19 @@
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D192" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E192" s="10" t="n">
         <v>0.02</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>342</v>
@@ -9559,16 +9565,16 @@
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D193" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>342</v>
@@ -9598,13 +9604,13 @@
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D194" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>76</v>
@@ -9637,16 +9643,16 @@
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D195" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G195" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>385</v>
-      </c>
       <c r="H195" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>342</v>
@@ -9676,13 +9682,13 @@
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>51</v>
@@ -9718,16 +9724,16 @@
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>342</v>
@@ -9757,19 +9763,19 @@
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D198" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>162</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>342</v>
@@ -9799,16 +9805,16 @@
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D199" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>150</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>342</v>
@@ -9838,16 +9844,16 @@
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>342</v>
@@ -9877,16 +9883,16 @@
     </row>
     <row r="201" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D201" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>150</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>342</v>
@@ -9916,16 +9922,16 @@
     </row>
     <row r="202" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D202" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>98</v>
@@ -9958,16 +9964,16 @@
     </row>
     <row r="203" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>145</v>
@@ -10000,13 +10006,13 @@
     </row>
     <row r="204" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D204" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>32</v>
@@ -10039,13 +10045,13 @@
     </row>
     <row r="205" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D205" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>179</v>
@@ -10081,16 +10087,16 @@
     </row>
     <row r="206" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D206" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>237</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>342</v>
@@ -10120,13 +10126,13 @@
     </row>
     <row r="207" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>182</v>
@@ -10162,16 +10168,16 @@
     </row>
     <row r="208" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D208" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>342</v>
@@ -10201,16 +10207,16 @@
     </row>
     <row r="209" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D209" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>237</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I209" s="1" t="s">
         <v>342</v>
@@ -10240,10 +10246,10 @@
     </row>
     <row r="210" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D210" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>59</v>
@@ -10279,16 +10285,16 @@
     </row>
     <row r="211" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D211" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>162</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>342</v>
@@ -10318,16 +10324,16 @@
     </row>
     <row r="212" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>162</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>342</v>
@@ -10357,16 +10363,16 @@
     </row>
     <row r="213" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D213" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>237</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>342</v>
@@ -10396,16 +10402,16 @@
     </row>
     <row r="214" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D214" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>237</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I214" s="1" t="s">
         <v>342</v>
@@ -10435,16 +10441,16 @@
     </row>
     <row r="215" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>176</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>342</v>
@@ -10474,10 +10480,10 @@
     </row>
     <row r="216" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D216" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>51</v>
@@ -10513,13 +10519,13 @@
     </row>
     <row r="217" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D217" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>20</v>
@@ -10555,13 +10561,13 @@
     </row>
     <row r="218" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D218" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>183</v>
@@ -10594,13 +10600,13 @@
     </row>
     <row r="219" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D219" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G219" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G219" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>183</v>
@@ -10636,13 +10642,13 @@
         <v>326</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>342</v>
@@ -10672,13 +10678,13 @@
     </row>
     <row r="221" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D221" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>64</v>
@@ -10711,13 +10717,13 @@
     </row>
     <row r="222" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D222" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>64</v>
@@ -10750,13 +10756,13 @@
     </row>
     <row r="223" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D223" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>342</v>
@@ -10786,13 +10792,13 @@
     </row>
     <row r="224" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D224" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>98</v>
@@ -10825,13 +10831,13 @@
     </row>
     <row r="225" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D225" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>98</v>
@@ -10864,16 +10870,16 @@
     </row>
     <row r="226" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D226" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>278</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>183</v>
@@ -10906,10 +10912,10 @@
     </row>
     <row r="227" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D227" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>51</v>
@@ -10945,13 +10951,13 @@
     </row>
     <row r="228" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D228" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>64</v>
@@ -10978,13 +10984,13 @@
     </row>
     <row r="229" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D229" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G229" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>64</v>
@@ -11008,13 +11014,13 @@
     </row>
     <row r="230" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D230" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>64</v>
@@ -11041,13 +11047,13 @@
     </row>
     <row r="231" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D231" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>64</v>
@@ -11074,13 +11080,13 @@
     </row>
     <row r="232" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D232" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>64</v>
@@ -11107,13 +11113,13 @@
     </row>
     <row r="233" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D233" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>64</v>
@@ -11140,13 +11146,13 @@
     </row>
     <row r="234" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D234" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>64</v>
@@ -11173,13 +11179,13 @@
     </row>
     <row r="235" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D235" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>64</v>
@@ -11206,13 +11212,13 @@
     </row>
     <row r="236" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D236" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>64</v>
@@ -11239,13 +11245,13 @@
     </row>
     <row r="237" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D237" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>64</v>
@@ -11272,13 +11278,13 @@
     </row>
     <row r="238" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D238" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>64</v>
@@ -11305,13 +11311,13 @@
     </row>
     <row r="239" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D239" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>64</v>
@@ -11338,13 +11344,13 @@
     </row>
     <row r="240" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D240" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>64</v>
@@ -11371,13 +11377,13 @@
     </row>
     <row r="241" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D241" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>64</v>
@@ -11404,13 +11410,13 @@
     </row>
     <row r="242" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D242" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>64</v>
@@ -11434,13 +11440,13 @@
     </row>
     <row r="243" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D243" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>64</v>
@@ -11467,13 +11473,13 @@
     </row>
     <row r="244" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D244" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>64</v>
@@ -11500,13 +11506,13 @@
     </row>
     <row r="245" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D245" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>64</v>
@@ -11533,13 +11539,13 @@
     </row>
     <row r="246" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D246" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>64</v>
@@ -11566,13 +11572,13 @@
     </row>
     <row r="247" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D247" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>64</v>
@@ -11599,13 +11605,13 @@
     </row>
     <row r="248" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D248" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>64</v>
@@ -11632,13 +11638,13 @@
     </row>
     <row r="249" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D249" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>64</v>
@@ -11665,13 +11671,13 @@
     </row>
     <row r="250" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D250" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>64</v>
@@ -11698,13 +11704,13 @@
     </row>
     <row r="251" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D251" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>64</v>
@@ -11731,13 +11737,13 @@
     </row>
     <row r="252" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D252" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>64</v>
@@ -11764,13 +11770,13 @@
     </row>
     <row r="253" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D253" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>64</v>
@@ -11797,13 +11803,13 @@
     </row>
     <row r="254" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D254" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>64</v>
@@ -11830,13 +11836,13 @@
     </row>
     <row r="255" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D255" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>64</v>
@@ -11863,13 +11869,13 @@
     </row>
     <row r="256" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D256" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>64</v>
@@ -11896,13 +11902,13 @@
     </row>
     <row r="257" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D257" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>64</v>
@@ -11929,13 +11935,13 @@
     </row>
     <row r="258" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D258" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>64</v>
@@ -11962,13 +11968,13 @@
     </row>
     <row r="259" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D259" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>64</v>
@@ -11995,13 +12001,13 @@
     </row>
     <row r="260" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D260" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>64</v>
@@ -12028,13 +12034,13 @@
     </row>
     <row r="261" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D261" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>64</v>
@@ -12061,13 +12067,13 @@
     </row>
     <row r="262" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D262" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>64</v>
@@ -12094,13 +12100,13 @@
     </row>
     <row r="263" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D263" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>64</v>
@@ -12127,13 +12133,13 @@
     </row>
     <row r="264" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D264" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>64</v>
@@ -12160,13 +12166,13 @@
     </row>
     <row r="265" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D265" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>64</v>
@@ -12193,13 +12199,13 @@
     </row>
     <row r="266" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D266" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>64</v>
@@ -12226,13 +12232,13 @@
     </row>
     <row r="267" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D267" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>64</v>
@@ -12259,13 +12265,13 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D268" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>342</v>
@@ -12292,13 +12298,13 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D269" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>342</v>
@@ -12337,7 +12343,7 @@
         <v>44</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>342</v>
@@ -12373,7 +12379,7 @@
         <v>345</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G271" s="5" t="s">
         <v>97</v>
